--- a/jadwal/jadwal hari 1.xlsx
+++ b/jadwal/jadwal hari 1.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My work\Project\silat\kejurnas-tadjimalela2022\jadwal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DDBFC9-629B-4907-9CAD-9EBCD3426795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762E2822-D0AA-43FE-A5D7-CBE9CE571A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="344">
   <si>
     <t xml:space="preserve">JADWAL PERTANDINGAN </t>
   </si>
@@ -923,9 +934,6 @@
     <t xml:space="preserve">Tadjimalela Mutiara </t>
   </si>
   <si>
-    <t>PEMENANG PARTAI 33</t>
-  </si>
-  <si>
     <t>PEMENANG PARTAI 35</t>
   </si>
   <si>
@@ -990,6 +998,72 @@
   </si>
   <si>
     <t>Muhammad Syechan</t>
+  </si>
+  <si>
+    <t>Chandra Satria</t>
+  </si>
+  <si>
+    <t>Algi Seftiaji</t>
+  </si>
+  <si>
+    <t>Rangga M</t>
+  </si>
+  <si>
+    <t>Indra Ahmad Fauzi</t>
+  </si>
+  <si>
+    <t>M. Asrul</t>
+  </si>
+  <si>
+    <t>Sanii Solehah</t>
+  </si>
+  <si>
+    <t>Nabila Putri Fajar</t>
+  </si>
+  <si>
+    <t>H PI</t>
+  </si>
+  <si>
+    <t>Nabilah Salwa</t>
+  </si>
+  <si>
+    <t>Shovia Fatmawati</t>
+  </si>
+  <si>
+    <t>Tadjimalela 69</t>
+  </si>
+  <si>
+    <t>Rani Fatmawati</t>
+  </si>
+  <si>
+    <t>Indri Widiawati</t>
+  </si>
+  <si>
+    <t>A PA</t>
+  </si>
+  <si>
+    <t>M. Sayyid At Thoriq</t>
+  </si>
+  <si>
+    <t>Fahry M.H.</t>
+  </si>
+  <si>
+    <t>Cendi M. Saputra</t>
+  </si>
+  <si>
+    <t>Ikhsan Rasheed</t>
+  </si>
+  <si>
+    <t>Dicky Candra</t>
+  </si>
+  <si>
+    <t>Shah Putra D</t>
+  </si>
+  <si>
+    <t>Farrell</t>
+  </si>
+  <si>
+    <t>M. Ihsan Zazuly</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1071,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-421]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -1510,7 +1584,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1590,6 +1664,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1620,13 +1703,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1647,15 +1730,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1665,46 +1739,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1713,13 +1751,52 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2001,10 +2078,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L245"/>
+  <dimension ref="A1:L328"/>
   <sheetViews>
-    <sheetView topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240:XFD245"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="I226" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2780,82 +2857,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A6" s="3"/>
@@ -2902,37 +2979,37 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="9" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="K10" s="40" t="s">
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="K10" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="43"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1">
@@ -2956,10 +3033,10 @@
         <v>12</v>
       </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="45"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A13" s="13"/>
@@ -2972,7 +3049,7 @@
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5"/>
@@ -2992,15 +3069,15 @@
         <v>17</v>
       </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="61">
+      <c r="K14" s="52">
         <v>5</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="5"/>
       <c r="C15" s="50"/>
       <c r="D15" s="5"/>
@@ -3014,18 +3091,18 @@
         <v>19</v>
       </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="67"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="68"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="58" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="5"/>
@@ -3045,15 +3122,15 @@
         <v>22</v>
       </c>
       <c r="J17" s="17"/>
-      <c r="K17" s="61">
+      <c r="K17" s="52">
         <v>0</v>
       </c>
-      <c r="L17" s="66">
+      <c r="L17" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="5"/>
       <c r="C18" s="50"/>
       <c r="D18" s="5"/>
@@ -3067,8 +3144,8 @@
         <v>24</v>
       </c>
       <c r="J18" s="17"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="67"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A19" s="13"/>
@@ -3079,11 +3156,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="68"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="5"/>
@@ -3103,15 +3180,15 @@
         <v>27</v>
       </c>
       <c r="J20" s="17"/>
-      <c r="K20" s="61">
+      <c r="K20" s="52">
         <v>5</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="5"/>
       <c r="C21" s="50"/>
       <c r="D21" s="5"/>
@@ -3125,18 +3202,18 @@
         <v>29</v>
       </c>
       <c r="J21" s="17"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="67"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="68"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="5"/>
@@ -3156,15 +3233,15 @@
         <v>32</v>
       </c>
       <c r="J23" s="17"/>
-      <c r="K23" s="61">
+      <c r="K23" s="52">
         <v>0</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="5"/>
       <c r="C24" s="50"/>
       <c r="D24" s="5"/>
@@ -3178,8 +3255,8 @@
         <v>34</v>
       </c>
       <c r="J24" s="17"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="67"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A25" s="5"/>
@@ -3192,11 +3269,11 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="68"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="5"/>
@@ -3216,15 +3293,15 @@
         <v>37</v>
       </c>
       <c r="J26" s="17"/>
-      <c r="K26" s="61">
+      <c r="K26" s="52">
         <v>0</v>
       </c>
-      <c r="L26" s="66">
+      <c r="L26" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A27" s="47"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="5"/>
       <c r="C27" s="50"/>
       <c r="D27" s="5"/>
@@ -3238,8 +3315,8 @@
         <v>39</v>
       </c>
       <c r="J27" s="17"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="67"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A28" s="13"/>
@@ -3250,11 +3327,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="68"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="5"/>
@@ -3273,15 +3350,15 @@
       <c r="I29" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K29" s="61">
+      <c r="K29" s="52">
         <v>2</v>
       </c>
-      <c r="L29" s="66">
+      <c r="L29" s="54">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="5"/>
       <c r="C30" s="50"/>
       <c r="D30" s="5"/>
@@ -3294,8 +3371,8 @@
       <c r="I30" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K30" s="62"/>
-      <c r="L30" s="67"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A31" s="13"/>
@@ -3306,11 +3383,11 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="68"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A32" s="48">
+      <c r="A32" s="56">
         <v>7</v>
       </c>
       <c r="B32" s="5"/>
@@ -3330,15 +3407,15 @@
         <v>46</v>
       </c>
       <c r="J32" s="17"/>
-      <c r="K32" s="61">
+      <c r="K32" s="52">
         <v>2</v>
       </c>
-      <c r="L32" s="66">
+      <c r="L32" s="54">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="5"/>
       <c r="C33" s="50"/>
       <c r="D33" s="5"/>
@@ -3352,18 +3429,18 @@
         <v>48</v>
       </c>
       <c r="J33" s="17"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="67"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="55"/>
     </row>
     <row r="34" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="68"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A35" s="48">
+      <c r="A35" s="56">
         <v>8</v>
       </c>
       <c r="B35" s="5"/>
@@ -3383,15 +3460,15 @@
         <v>51</v>
       </c>
       <c r="J35" s="17"/>
-      <c r="K35" s="61">
+      <c r="K35" s="52">
         <v>0</v>
       </c>
-      <c r="L35" s="66">
+      <c r="L35" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="5"/>
       <c r="C36" s="50"/>
       <c r="D36" s="5"/>
@@ -3405,8 +3482,8 @@
         <v>44</v>
       </c>
       <c r="J36" s="17"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="67"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="55"/>
     </row>
     <row r="37" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A37" s="13"/>
@@ -3416,11 +3493,11 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="68"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A38" s="48">
+      <c r="A38" s="56">
         <v>9</v>
       </c>
       <c r="B38" s="5"/>
@@ -3440,15 +3517,15 @@
         <v>54</v>
       </c>
       <c r="J38" s="17"/>
-      <c r="K38" s="61">
+      <c r="K38" s="52">
         <v>0</v>
       </c>
-      <c r="L38" s="66">
+      <c r="L38" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A39" s="47"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="5"/>
       <c r="C39" s="50"/>
       <c r="D39" s="5"/>
@@ -3462,19 +3539,19 @@
         <v>23</v>
       </c>
       <c r="J39" s="17"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="67"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="55"/>
     </row>
     <row r="40" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="C40" s="13"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="68"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A41" s="48">
+      <c r="A41" s="56">
         <v>10</v>
       </c>
       <c r="B41" s="5"/>
@@ -3494,15 +3571,15 @@
         <v>57</v>
       </c>
       <c r="J41" s="17"/>
-      <c r="K41" s="61">
+      <c r="K41" s="52">
         <v>4</v>
       </c>
-      <c r="L41" s="66">
+      <c r="L41" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A42" s="47"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="5"/>
       <c r="C42" s="50"/>
       <c r="D42" s="5"/>
@@ -3516,8 +3593,8 @@
         <v>58</v>
       </c>
       <c r="J42" s="17"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="67"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="55"/>
     </row>
     <row r="43" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A43" s="5"/>
@@ -3529,11 +3606,11 @@
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="68"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A44" s="48">
+      <c r="A44" s="56">
         <v>11</v>
       </c>
       <c r="B44" s="5"/>
@@ -3553,15 +3630,15 @@
         <v>60</v>
       </c>
       <c r="J44" s="17"/>
-      <c r="K44" s="61">
+      <c r="K44" s="52">
         <v>5</v>
       </c>
-      <c r="L44" s="66">
+      <c r="L44" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A45" s="47"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="5"/>
       <c r="C45" s="50"/>
       <c r="D45" s="5"/>
@@ -3575,18 +3652,18 @@
         <v>61</v>
       </c>
       <c r="J45" s="17"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="67"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="55"/>
     </row>
     <row r="46" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="68"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A47" s="48">
+      <c r="A47" s="56">
         <v>12</v>
       </c>
       <c r="B47" s="5"/>
@@ -3606,15 +3683,15 @@
         <v>63</v>
       </c>
       <c r="J47" s="17"/>
-      <c r="K47" s="61">
+      <c r="K47" s="52">
         <v>0</v>
       </c>
-      <c r="L47" s="66">
+      <c r="L47" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A48" s="47"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="5"/>
       <c r="C48" s="50"/>
       <c r="D48" s="5"/>
@@ -3628,8 +3705,8 @@
         <v>64</v>
       </c>
       <c r="J48" s="17"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="67"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="55"/>
     </row>
     <row r="49" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A49" s="13"/>
@@ -3640,11 +3717,11 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="68"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="29"/>
     </row>
     <row r="50" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A50" s="48">
+      <c r="A50" s="56">
         <v>13</v>
       </c>
       <c r="B50" s="5"/>
@@ -3664,15 +3741,15 @@
         <v>66</v>
       </c>
       <c r="J50" s="17"/>
-      <c r="K50" s="64">
+      <c r="K50" s="59">
         <v>0</v>
       </c>
-      <c r="L50" s="69">
+      <c r="L50" s="61">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A51" s="47"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="5"/>
       <c r="C51" s="50"/>
       <c r="D51" s="5"/>
@@ -3686,18 +3763,18 @@
         <v>68</v>
       </c>
       <c r="J51" s="17"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="70"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="62"/>
     </row>
     <row r="52" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="68"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29"/>
     </row>
     <row r="53" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A53" s="48">
+      <c r="A53" s="56">
         <v>14</v>
       </c>
       <c r="B53" s="5"/>
@@ -3717,15 +3794,15 @@
         <v>71</v>
       </c>
       <c r="J53" s="17"/>
-      <c r="K53" s="61">
+      <c r="K53" s="52">
         <v>0</v>
       </c>
-      <c r="L53" s="66">
+      <c r="L53" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A54" s="47"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="5"/>
       <c r="C54" s="50"/>
       <c r="D54" s="5"/>
@@ -3739,8 +3816,8 @@
         <v>72</v>
       </c>
       <c r="J54" s="17"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="67"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="55"/>
     </row>
     <row r="55" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A55" s="5"/>
@@ -3753,11 +3830,11 @@
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="68"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="29"/>
     </row>
     <row r="56" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A56" s="48">
+      <c r="A56" s="56">
         <v>15</v>
       </c>
       <c r="B56" s="5"/>
@@ -3777,15 +3854,15 @@
         <v>74</v>
       </c>
       <c r="J56" s="17"/>
-      <c r="K56" s="61">
+      <c r="K56" s="52">
         <v>5</v>
       </c>
-      <c r="L56" s="66">
+      <c r="L56" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A57" s="47"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="5"/>
       <c r="C57" s="50"/>
       <c r="D57" s="5"/>
@@ -3799,8 +3876,8 @@
         <v>76</v>
       </c>
       <c r="J57" s="17"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="67"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="55"/>
     </row>
     <row r="58" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A58" s="13"/>
@@ -3811,11 +3888,11 @@
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="68"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="29"/>
     </row>
     <row r="59" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A59" s="48">
+      <c r="A59" s="56">
         <v>16</v>
       </c>
       <c r="B59" s="5"/>
@@ -3834,15 +3911,15 @@
       <c r="I59" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="K59" s="61">
+      <c r="K59" s="52">
         <v>5</v>
       </c>
-      <c r="L59" s="66">
+      <c r="L59" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A60" s="47"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="5"/>
       <c r="C60" s="50"/>
       <c r="D60" s="5"/>
@@ -3855,8 +3932,8 @@
       <c r="I60" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K60" s="62"/>
-      <c r="L60" s="67"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="55"/>
     </row>
     <row r="61" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A61" s="13"/>
@@ -3867,11 +3944,11 @@
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="68"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="29"/>
     </row>
     <row r="62" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A62" s="48">
+      <c r="A62" s="56">
         <v>17</v>
       </c>
       <c r="B62" s="5"/>
@@ -3888,14 +3965,18 @@
       </c>
       <c r="H62"/>
       <c r="I62" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J62" s="17"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="66"/>
+      <c r="K62" s="52">
+        <v>5</v>
+      </c>
+      <c r="L62" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A63" s="47"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="5"/>
       <c r="C63" s="50"/>
       <c r="D63" s="5"/>
@@ -3906,21 +3987,21 @@
       </c>
       <c r="H63"/>
       <c r="I63" s="15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J63" s="17"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="67"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="55"/>
     </row>
     <row r="64" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="68"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="29"/>
     </row>
     <row r="65" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A65" s="48">
+      <c r="A65" s="56">
         <v>18</v>
       </c>
       <c r="B65" s="5"/>
@@ -3940,11 +4021,15 @@
         <v>83</v>
       </c>
       <c r="J65" s="17"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="66"/>
+      <c r="K65" s="52">
+        <v>0</v>
+      </c>
+      <c r="L65" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A66" s="47"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="5"/>
       <c r="C66" s="50"/>
       <c r="D66" s="5"/>
@@ -3958,8 +4043,8 @@
         <v>85</v>
       </c>
       <c r="J66" s="17"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="67"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="55"/>
     </row>
     <row r="67" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A67" s="13"/>
@@ -3969,11 +4054,11 @@
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="68"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
     </row>
     <row r="68" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A68" s="48">
+      <c r="A68" s="56">
         <v>19</v>
       </c>
       <c r="B68" s="5"/>
@@ -3993,11 +4078,15 @@
         <v>88</v>
       </c>
       <c r="J68" s="17"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="66"/>
+      <c r="K68" s="52">
+        <v>0</v>
+      </c>
+      <c r="L68" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A69" s="47"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="5"/>
       <c r="C69" s="50"/>
       <c r="D69" s="5"/>
@@ -4011,19 +4100,19 @@
         <v>90</v>
       </c>
       <c r="J69" s="17"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="67"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="55"/>
     </row>
     <row r="70" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="C70" s="13"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="68"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
     </row>
     <row r="71" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A71" s="48">
+      <c r="A71" s="56">
         <v>20</v>
       </c>
       <c r="B71" s="5"/>
@@ -4043,11 +4132,15 @@
         <v>92</v>
       </c>
       <c r="J71" s="17"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="66"/>
+      <c r="K71" s="52">
+        <v>0</v>
+      </c>
+      <c r="L71" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A72" s="47"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="5"/>
       <c r="C72" s="50"/>
       <c r="D72" s="5"/>
@@ -4061,8 +4154,8 @@
         <v>38</v>
       </c>
       <c r="J72" s="17"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="67"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="55"/>
     </row>
     <row r="73" spans="1:12" ht="11.1" customHeight="1">
       <c r="A73" s="22"/>
@@ -4177,82 +4270,82 @@
       <c r="L79" s="23"/>
     </row>
     <row r="82" spans="1:12" ht="5.0999999999999996" customHeight="1">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="29"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="32"/>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="32"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="35"/>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="32"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="35"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="32"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="35"/>
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="35"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="38"/>
     </row>
     <row r="87" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A87" s="3"/>
@@ -4299,37 +4392,37 @@
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="1:12" ht="9" customHeight="1">
-      <c r="A90" s="36"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
     </row>
     <row r="91" spans="1:12" s="1" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="42"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="40" t="s">
+      <c r="G91" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H91" s="41"/>
-      <c r="I91" s="42"/>
-      <c r="K91" s="40" t="s">
+      <c r="H91" s="44"/>
+      <c r="I91" s="45"/>
+      <c r="K91" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="L91" s="43"/>
+      <c r="L91" s="46"/>
     </row>
     <row r="92" spans="1:12" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="93" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1">
@@ -4353,10 +4446,10 @@
         <v>12</v>
       </c>
       <c r="J93" s="7"/>
-      <c r="K93" s="44" t="s">
+      <c r="K93" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L93" s="45"/>
+      <c r="L93" s="48"/>
     </row>
     <row r="94" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A94" s="13"/>
@@ -4369,7 +4462,7 @@
       <c r="I94" s="14"/>
     </row>
     <row r="95" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B95" s="5"/>
@@ -4389,11 +4482,15 @@
         <v>101</v>
       </c>
       <c r="J95" s="17"/>
-      <c r="K95" s="52"/>
-      <c r="L95" s="54"/>
+      <c r="K95" s="52">
+        <v>5</v>
+      </c>
+      <c r="L95" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A96" s="47"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="5"/>
       <c r="C96" s="50"/>
       <c r="D96" s="5"/>
@@ -4414,9 +4511,11 @@
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="29"/>
     </row>
     <row r="98" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="58" t="s">
         <v>20</v>
       </c>
       <c r="B98" s="5"/>
@@ -4436,11 +4535,15 @@
         <v>105</v>
       </c>
       <c r="J98" s="17"/>
-      <c r="K98" s="52"/>
-      <c r="L98" s="54"/>
+      <c r="K98" s="52">
+        <v>0</v>
+      </c>
+      <c r="L98" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="99" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A99" s="47"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="5"/>
       <c r="C99" s="50"/>
       <c r="D99" s="5"/>
@@ -4466,9 +4569,11 @@
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="29"/>
     </row>
     <row r="101" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B101" s="5"/>
@@ -4488,11 +4593,15 @@
         <v>107</v>
       </c>
       <c r="J101" s="17"/>
-      <c r="K101" s="52"/>
-      <c r="L101" s="54"/>
+      <c r="K101" s="52">
+        <v>5</v>
+      </c>
+      <c r="L101" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A102" s="47"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="5"/>
       <c r="C102" s="50"/>
       <c r="D102" s="5"/>
@@ -4513,9 +4622,11 @@
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="29"/>
     </row>
     <row r="104" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A104" s="46" t="s">
+      <c r="A104" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B104" s="5"/>
@@ -4535,11 +4646,15 @@
         <v>110</v>
       </c>
       <c r="J104" s="17"/>
-      <c r="K104" s="52"/>
-      <c r="L104" s="54"/>
+      <c r="K104" s="52">
+        <v>1</v>
+      </c>
+      <c r="L104" s="54">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A105" s="47"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="5"/>
       <c r="C105" s="50"/>
       <c r="D105" s="5"/>
@@ -4566,9 +4681,11 @@
       <c r="H106" s="16"/>
       <c r="I106" s="16"/>
       <c r="J106" s="17"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="29"/>
     </row>
     <row r="107" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B107" s="5"/>
@@ -4588,11 +4705,15 @@
         <v>113</v>
       </c>
       <c r="J107" s="17"/>
-      <c r="K107" s="52"/>
-      <c r="L107" s="54"/>
+      <c r="K107" s="52">
+        <v>0</v>
+      </c>
+      <c r="L107" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A108" s="47"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="5"/>
       <c r="C108" s="50"/>
       <c r="D108" s="5"/>
@@ -4618,9 +4739,11 @@
       <c r="G109" s="18"/>
       <c r="H109" s="18"/>
       <c r="I109" s="18"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="29"/>
     </row>
     <row r="110" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A110" s="46" t="s">
+      <c r="A110" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B110" s="5"/>
@@ -4639,11 +4762,15 @@
       <c r="I110" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="K110" s="52"/>
-      <c r="L110" s="54"/>
+      <c r="K110" s="52">
+        <v>0</v>
+      </c>
+      <c r="L110" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="111" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A111" s="47"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="5"/>
       <c r="C111" s="50"/>
       <c r="D111" s="5"/>
@@ -4667,9 +4794,11 @@
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="16"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="29"/>
     </row>
     <row r="113" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A113" s="48">
+      <c r="A113" s="56">
         <v>7</v>
       </c>
       <c r="B113" s="5"/>
@@ -4689,11 +4818,15 @@
         <v>118</v>
       </c>
       <c r="J113" s="17"/>
-      <c r="K113" s="52"/>
-      <c r="L113" s="54"/>
+      <c r="K113" s="52">
+        <v>0</v>
+      </c>
+      <c r="L113" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="114" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A114" s="47"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="5"/>
       <c r="C114" s="50"/>
       <c r="D114" s="5"/>
@@ -4715,9 +4848,11 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="29"/>
     </row>
     <row r="116" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A116" s="48">
+      <c r="A116" s="56">
         <v>8</v>
       </c>
       <c r="B116" s="5"/>
@@ -4737,11 +4872,15 @@
         <v>122</v>
       </c>
       <c r="J116" s="17"/>
-      <c r="K116" s="52"/>
-      <c r="L116" s="54"/>
+      <c r="K116" s="52">
+        <v>5</v>
+      </c>
+      <c r="L116" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A117" s="47"/>
+      <c r="A117" s="57"/>
       <c r="B117" s="5"/>
       <c r="C117" s="50"/>
       <c r="D117" s="5"/>
@@ -4765,9 +4904,11 @@
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="29"/>
     </row>
     <row r="119" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A119" s="48">
+      <c r="A119" s="56">
         <v>9</v>
       </c>
       <c r="B119" s="5"/>
@@ -4787,11 +4928,15 @@
         <v>124</v>
       </c>
       <c r="J119" s="17"/>
-      <c r="K119" s="52"/>
-      <c r="L119" s="54"/>
+      <c r="K119" s="52">
+        <v>5</v>
+      </c>
+      <c r="L119" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A120" s="47"/>
+      <c r="A120" s="57"/>
       <c r="B120" s="5"/>
       <c r="C120" s="50"/>
       <c r="D120" s="5"/>
@@ -4815,9 +4960,11 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
       <c r="I121" s="16"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="29"/>
     </row>
     <row r="122" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A122" s="48">
+      <c r="A122" s="56">
         <v>10</v>
       </c>
       <c r="B122" s="5"/>
@@ -4837,11 +4984,15 @@
         <v>126</v>
       </c>
       <c r="J122" s="17"/>
-      <c r="K122" s="52"/>
-      <c r="L122" s="54"/>
+      <c r="K122" s="52">
+        <v>5</v>
+      </c>
+      <c r="L122" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A123" s="47"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="5"/>
       <c r="C123" s="50"/>
       <c r="D123" s="5"/>
@@ -4866,9 +5017,11 @@
       <c r="H124" s="16"/>
       <c r="I124" s="16"/>
       <c r="J124" s="17"/>
+      <c r="K124" s="28"/>
+      <c r="L124" s="29"/>
     </row>
     <row r="125" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A125" s="48">
+      <c r="A125" s="56">
         <v>11</v>
       </c>
       <c r="B125" s="5"/>
@@ -4888,11 +5041,15 @@
         <v>129</v>
       </c>
       <c r="J125" s="17"/>
-      <c r="K125" s="52"/>
-      <c r="L125" s="54"/>
+      <c r="K125" s="52">
+        <v>0</v>
+      </c>
+      <c r="L125" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="126" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A126" s="47"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="5"/>
       <c r="C126" s="50"/>
       <c r="D126" s="5"/>
@@ -4914,9 +5071,11 @@
       <c r="G127" s="16"/>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="29"/>
     </row>
     <row r="128" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A128" s="48">
+      <c r="A128" s="56">
         <v>12</v>
       </c>
       <c r="B128" s="5"/>
@@ -4936,11 +5095,15 @@
         <v>131</v>
       </c>
       <c r="J128" s="17"/>
-      <c r="K128" s="52"/>
-      <c r="L128" s="54"/>
+      <c r="K128" s="52">
+        <v>2</v>
+      </c>
+      <c r="L128" s="54">
+        <v>3</v>
+      </c>
     </row>
     <row r="129" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A129" s="47"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="5"/>
       <c r="C129" s="50"/>
       <c r="D129" s="5"/>
@@ -4965,9 +5128,11 @@
       <c r="G130" s="16"/>
       <c r="H130" s="16"/>
       <c r="I130" s="16"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="29"/>
     </row>
     <row r="131" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A131" s="48">
+      <c r="A131" s="56">
         <v>13</v>
       </c>
       <c r="B131" s="5"/>
@@ -4987,11 +5152,15 @@
         <v>135</v>
       </c>
       <c r="J131" s="17"/>
-      <c r="K131" s="52"/>
-      <c r="L131" s="54"/>
+      <c r="K131" s="52">
+        <v>5</v>
+      </c>
+      <c r="L131" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A132" s="47"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="5"/>
       <c r="C132" s="50"/>
       <c r="D132" s="5"/>
@@ -5014,9 +5183,11 @@
       <c r="G133" s="16"/>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="29"/>
     </row>
     <row r="134" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A134" s="48">
+      <c r="A134" s="56">
         <v>14</v>
       </c>
       <c r="B134" s="5"/>
@@ -5036,11 +5207,15 @@
         <v>138</v>
       </c>
       <c r="J134" s="17"/>
-      <c r="K134" s="52"/>
-      <c r="L134" s="54"/>
+      <c r="K134" s="52">
+        <v>0</v>
+      </c>
+      <c r="L134" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="135" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A135" s="47"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="5"/>
       <c r="C135" s="50"/>
       <c r="D135" s="5"/>
@@ -5067,9 +5242,11 @@
       <c r="H136" s="16"/>
       <c r="I136" s="16"/>
       <c r="J136" s="17"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="29"/>
     </row>
     <row r="137" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A137" s="48">
+      <c r="A137" s="56">
         <v>15</v>
       </c>
       <c r="B137" s="5"/>
@@ -5089,11 +5266,15 @@
         <v>141</v>
       </c>
       <c r="J137" s="17"/>
-      <c r="K137" s="52"/>
-      <c r="L137" s="54"/>
+      <c r="K137" s="52">
+        <v>0</v>
+      </c>
+      <c r="L137" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="138" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A138" s="47"/>
+      <c r="A138" s="57"/>
       <c r="B138" s="5"/>
       <c r="C138" s="50"/>
       <c r="D138" s="5"/>
@@ -5119,9 +5300,11 @@
       <c r="G139" s="18"/>
       <c r="H139" s="18"/>
       <c r="I139" s="18"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="29"/>
     </row>
     <row r="140" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A140" s="48">
+      <c r="A140" s="56">
         <v>16</v>
       </c>
       <c r="B140" s="5"/>
@@ -5140,11 +5323,15 @@
       <c r="I140" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="K140" s="52"/>
-      <c r="L140" s="54"/>
+      <c r="K140" s="52">
+        <v>0</v>
+      </c>
+      <c r="L140" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="141" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A141" s="47"/>
+      <c r="A141" s="57"/>
       <c r="B141" s="5"/>
       <c r="C141" s="50"/>
       <c r="D141" s="5"/>
@@ -5168,9 +5355,11 @@
       <c r="G142" s="16"/>
       <c r="H142" s="16"/>
       <c r="I142" s="16"/>
+      <c r="K142" s="28"/>
+      <c r="L142" s="29"/>
     </row>
     <row r="143" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A143" s="48">
+      <c r="A143" s="56">
         <v>17</v>
       </c>
       <c r="B143" s="5"/>
@@ -5190,11 +5379,15 @@
         <v>147</v>
       </c>
       <c r="J143" s="17"/>
-      <c r="K143" s="52"/>
-      <c r="L143" s="54"/>
+      <c r="K143" s="52">
+        <v>1</v>
+      </c>
+      <c r="L143" s="54">
+        <v>4</v>
+      </c>
     </row>
     <row r="144" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A144" s="47"/>
+      <c r="A144" s="57"/>
       <c r="B144" s="5"/>
       <c r="C144" s="50"/>
       <c r="D144" s="5"/>
@@ -5216,9 +5409,11 @@
       <c r="G145" s="16"/>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="29"/>
     </row>
     <row r="146" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A146" s="48">
+      <c r="A146" s="56">
         <v>18</v>
       </c>
       <c r="B146" s="5"/>
@@ -5238,11 +5433,15 @@
         <v>149</v>
       </c>
       <c r="J146" s="17"/>
-      <c r="K146" s="52"/>
-      <c r="L146" s="54"/>
+      <c r="K146" s="52">
+        <v>0</v>
+      </c>
+      <c r="L146" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="147" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A147" s="47"/>
+      <c r="A147" s="57"/>
       <c r="B147" s="5"/>
       <c r="C147" s="50"/>
       <c r="D147" s="5"/>
@@ -5266,9 +5465,11 @@
       <c r="G148" s="16"/>
       <c r="H148" s="16"/>
       <c r="I148" s="16"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="29"/>
     </row>
     <row r="149" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A149" s="48">
+      <c r="A149" s="56">
         <v>19</v>
       </c>
       <c r="B149" s="5"/>
@@ -5288,11 +5489,15 @@
         <v>152</v>
       </c>
       <c r="J149" s="17"/>
-      <c r="K149" s="52"/>
-      <c r="L149" s="54"/>
+      <c r="K149" s="52">
+        <v>0</v>
+      </c>
+      <c r="L149" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="150" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A150" s="47"/>
+      <c r="A150" s="57"/>
       <c r="B150" s="5"/>
       <c r="C150" s="50"/>
       <c r="D150" s="5"/>
@@ -5315,9 +5520,11 @@
       <c r="G151" s="16"/>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="29"/>
     </row>
     <row r="152" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A152" s="48">
+      <c r="A152" s="56">
         <v>20</v>
       </c>
       <c r="B152" s="5"/>
@@ -5337,11 +5544,15 @@
         <v>156</v>
       </c>
       <c r="J152" s="17"/>
-      <c r="K152" s="52"/>
-      <c r="L152" s="54"/>
+      <c r="K152" s="52">
+        <v>0</v>
+      </c>
+      <c r="L152" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="153" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A153" s="47"/>
+      <c r="A153" s="57"/>
       <c r="B153" s="5"/>
       <c r="C153" s="50"/>
       <c r="D153" s="5"/>
@@ -5366,9 +5577,11 @@
       <c r="G154" s="16"/>
       <c r="H154" s="16"/>
       <c r="I154" s="16"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="29"/>
     </row>
     <row r="155" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A155" s="48">
+      <c r="A155" s="56">
         <v>21</v>
       </c>
       <c r="B155" s="5"/>
@@ -5388,11 +5601,15 @@
         <v>159</v>
       </c>
       <c r="J155" s="17"/>
-      <c r="K155" s="52"/>
-      <c r="L155" s="54"/>
+      <c r="K155" s="52">
+        <v>5</v>
+      </c>
+      <c r="L155" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A156" s="47"/>
+      <c r="A156" s="57"/>
       <c r="B156" s="5"/>
       <c r="C156" s="50"/>
       <c r="D156" s="5"/>
@@ -5527,84 +5744,83 @@
       <c r="K164" s="23"/>
       <c r="L164" s="23"/>
     </row>
-    <row r="165" spans="1:12" ht="15"/>
     <row r="167" spans="1:12" ht="5.0999999999999996" customHeight="1">
-      <c r="A167" s="27"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="28"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
-      <c r="L167" s="29"/>
+      <c r="A167" s="30"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="31"/>
+      <c r="I167" s="31"/>
+      <c r="J167" s="31"/>
+      <c r="K167" s="31"/>
+      <c r="L167" s="32"/>
     </row>
     <row r="168" spans="1:12" ht="15" customHeight="1">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="31"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="31"/>
-      <c r="I168" s="31"/>
-      <c r="J168" s="31"/>
-      <c r="K168" s="31"/>
-      <c r="L168" s="32"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="34"/>
+      <c r="G168" s="34"/>
+      <c r="H168" s="34"/>
+      <c r="I168" s="34"/>
+      <c r="J168" s="34"/>
+      <c r="K168" s="34"/>
+      <c r="L168" s="35"/>
     </row>
     <row r="169" spans="1:12" ht="15" customHeight="1">
-      <c r="A169" s="30" t="s">
+      <c r="A169" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="31"/>
-      <c r="H169" s="31"/>
-      <c r="I169" s="31"/>
-      <c r="J169" s="31"/>
-      <c r="K169" s="31"/>
-      <c r="L169" s="32"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="34"/>
+      <c r="H169" s="34"/>
+      <c r="I169" s="34"/>
+      <c r="J169" s="34"/>
+      <c r="K169" s="34"/>
+      <c r="L169" s="35"/>
     </row>
     <row r="170" spans="1:12" ht="15" customHeight="1">
-      <c r="A170" s="30" t="s">
+      <c r="A170" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="31"/>
-      <c r="H170" s="31"/>
-      <c r="I170" s="31"/>
-      <c r="J170" s="31"/>
-      <c r="K170" s="31"/>
-      <c r="L170" s="32"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="34"/>
+      <c r="E170" s="34"/>
+      <c r="F170" s="34"/>
+      <c r="G170" s="34"/>
+      <c r="H170" s="34"/>
+      <c r="I170" s="34"/>
+      <c r="J170" s="34"/>
+      <c r="K170" s="34"/>
+      <c r="L170" s="35"/>
     </row>
     <row r="171" spans="1:12" ht="15" customHeight="1">
-      <c r="A171" s="33" t="s">
+      <c r="A171" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="34"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="34"/>
-      <c r="F171" s="34"/>
-      <c r="G171" s="34"/>
-      <c r="H171" s="34"/>
-      <c r="I171" s="34"/>
-      <c r="J171" s="34"/>
-      <c r="K171" s="34"/>
-      <c r="L171" s="35"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="37"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
+      <c r="I171" s="37"/>
+      <c r="J171" s="37"/>
+      <c r="K171" s="37"/>
+      <c r="L171" s="38"/>
     </row>
     <row r="172" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A172" s="3"/>
@@ -5651,37 +5867,37 @@
       <c r="L174" s="5"/>
     </row>
     <row r="175" spans="1:12" ht="9" customHeight="1">
-      <c r="A175" s="36"/>
-      <c r="B175" s="36"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="36"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="36"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="36"/>
-      <c r="L175" s="36"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="39"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="39"/>
+      <c r="F175" s="39"/>
+      <c r="G175" s="39"/>
+      <c r="H175" s="39"/>
+      <c r="I175" s="39"/>
+      <c r="J175" s="39"/>
+      <c r="K175" s="39"/>
+      <c r="L175" s="39"/>
     </row>
     <row r="176" spans="1:12" s="1" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B176" s="38"/>
-      <c r="C176" s="38"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="39"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="41"/>
+      <c r="E176" s="42"/>
       <c r="F176" s="7"/>
-      <c r="G176" s="40" t="s">
+      <c r="G176" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H176" s="41"/>
-      <c r="I176" s="42"/>
-      <c r="K176" s="40" t="s">
+      <c r="H176" s="44"/>
+      <c r="I176" s="45"/>
+      <c r="K176" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="L176" s="43"/>
+      <c r="L176" s="46"/>
     </row>
     <row r="177" spans="1:12" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="178" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1">
@@ -5705,10 +5921,10 @@
         <v>12</v>
       </c>
       <c r="J178" s="7"/>
-      <c r="K178" s="44" t="s">
+      <c r="K178" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L178" s="45"/>
+      <c r="L178" s="48"/>
     </row>
     <row r="179" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A179" s="13"/>
@@ -5721,7 +5937,7 @@
       <c r="I179" s="14"/>
     </row>
     <row r="180" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A180" s="46" t="s">
+      <c r="A180" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B180" s="5"/>
@@ -5741,11 +5957,15 @@
         <v>37</v>
       </c>
       <c r="J180" s="17"/>
-      <c r="K180" s="52"/>
-      <c r="L180" s="54"/>
+      <c r="K180" s="52">
+        <v>0</v>
+      </c>
+      <c r="L180" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="181" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A181" s="47"/>
+      <c r="A181" s="57"/>
       <c r="B181" s="5"/>
       <c r="C181" s="50"/>
       <c r="D181" s="5"/>
@@ -5766,9 +5986,11 @@
       <c r="G182" s="16"/>
       <c r="H182" s="16"/>
       <c r="I182" s="16"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="29"/>
     </row>
     <row r="183" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A183" s="46" t="s">
+      <c r="A183" s="58" t="s">
         <v>20</v>
       </c>
       <c r="B183" s="5"/>
@@ -5788,11 +6010,15 @@
         <v>22</v>
       </c>
       <c r="J183" s="17"/>
-      <c r="K183" s="52"/>
-      <c r="L183" s="54"/>
+      <c r="K183" s="52">
+        <v>5</v>
+      </c>
+      <c r="L183" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A184" s="47"/>
+      <c r="A184" s="57"/>
       <c r="B184" s="5"/>
       <c r="C184" s="50"/>
       <c r="D184" s="5"/>
@@ -5817,9 +6043,11 @@
       <c r="G185" s="16"/>
       <c r="H185" s="16"/>
       <c r="I185" s="16"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="29"/>
     </row>
     <row r="186" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A186" s="46" t="s">
+      <c r="A186" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B186" s="5"/>
@@ -5839,11 +6067,15 @@
         <v>276</v>
       </c>
       <c r="J186" s="17"/>
-      <c r="K186" s="52"/>
-      <c r="L186" s="54"/>
+      <c r="K186" s="52">
+        <v>5</v>
+      </c>
+      <c r="L186" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A187" s="47"/>
+      <c r="A187" s="57"/>
       <c r="B187" s="5"/>
       <c r="C187" s="50"/>
       <c r="D187" s="5"/>
@@ -5865,9 +6097,11 @@
       <c r="G188" s="16"/>
       <c r="H188" s="16"/>
       <c r="I188" s="16"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="29"/>
     </row>
     <row r="189" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A189" s="46" t="s">
+      <c r="A189" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B189" s="5"/>
@@ -5887,11 +6121,15 @@
         <v>26</v>
       </c>
       <c r="J189" s="17"/>
-      <c r="K189" s="52"/>
-      <c r="L189" s="54"/>
+      <c r="K189" s="52">
+        <v>0</v>
+      </c>
+      <c r="L189" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="190" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A190" s="47"/>
+      <c r="A190" s="57"/>
       <c r="B190" s="5"/>
       <c r="C190" s="50"/>
       <c r="D190" s="5"/>
@@ -5917,9 +6155,11 @@
       <c r="H191" s="16"/>
       <c r="I191" s="16"/>
       <c r="J191" s="17"/>
+      <c r="K191" s="28"/>
+      <c r="L191" s="29"/>
     </row>
     <row r="192" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A192" s="46" t="s">
+      <c r="A192" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B192" s="5"/>
@@ -5939,11 +6179,15 @@
         <v>192</v>
       </c>
       <c r="J192" s="17"/>
-      <c r="K192" s="52"/>
-      <c r="L192" s="54"/>
+      <c r="K192" s="52">
+        <v>0</v>
+      </c>
+      <c r="L192" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="193" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A193" s="47"/>
+      <c r="A193" s="57"/>
       <c r="B193" s="5"/>
       <c r="C193" s="50"/>
       <c r="D193" s="5"/>
@@ -5969,9 +6213,11 @@
       <c r="G194" s="16"/>
       <c r="H194" s="16"/>
       <c r="I194" s="16"/>
+      <c r="K194" s="28"/>
+      <c r="L194" s="29"/>
     </row>
     <row r="195" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A195" s="46" t="s">
+      <c r="A195" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B195" s="5"/>
@@ -5990,11 +6236,15 @@
       <c r="I195" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="K195" s="52"/>
-      <c r="L195" s="54"/>
+      <c r="K195" s="52">
+        <v>5</v>
+      </c>
+      <c r="L195" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A196" s="47"/>
+      <c r="A196" s="57"/>
       <c r="B196" s="5"/>
       <c r="C196" s="50"/>
       <c r="D196" s="5"/>
@@ -6019,9 +6269,11 @@
       <c r="G197" s="18"/>
       <c r="H197" s="18"/>
       <c r="I197" s="18"/>
+      <c r="K197" s="28"/>
+      <c r="L197" s="29"/>
     </row>
     <row r="198" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A198" s="48">
+      <c r="A198" s="56">
         <v>7</v>
       </c>
       <c r="B198" s="5"/>
@@ -6045,7 +6297,7 @@
       <c r="L198" s="54"/>
     </row>
     <row r="199" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A199" s="47"/>
+      <c r="A199" s="57"/>
       <c r="B199" s="5"/>
       <c r="C199" s="50"/>
       <c r="D199" s="5"/>
@@ -6066,9 +6318,11 @@
       <c r="G200" s="16"/>
       <c r="H200" s="16"/>
       <c r="I200" s="16"/>
+      <c r="K200" s="28"/>
+      <c r="L200" s="29"/>
     </row>
     <row r="201" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A201" s="48">
+      <c r="A201" s="56">
         <v>8</v>
       </c>
       <c r="B201" s="5"/>
@@ -6092,7 +6346,7 @@
       <c r="L201" s="54"/>
     </row>
     <row r="202" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A202" s="47"/>
+      <c r="A202" s="57"/>
       <c r="B202" s="5"/>
       <c r="C202" s="50"/>
       <c r="D202" s="5"/>
@@ -6117,9 +6371,11 @@
       <c r="G203" s="16"/>
       <c r="H203" s="16"/>
       <c r="I203" s="16"/>
+      <c r="K203" s="28"/>
+      <c r="L203" s="29"/>
     </row>
     <row r="204" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A204" s="48">
+      <c r="A204" s="56">
         <v>9</v>
       </c>
       <c r="B204" s="5"/>
@@ -6143,7 +6399,7 @@
       <c r="L204" s="54"/>
     </row>
     <row r="205" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A205" s="47"/>
+      <c r="A205" s="57"/>
       <c r="B205" s="5"/>
       <c r="C205" s="50"/>
       <c r="D205" s="5"/>
@@ -6165,9 +6421,11 @@
       <c r="G206" s="16"/>
       <c r="H206" s="16"/>
       <c r="I206" s="16"/>
+      <c r="K206" s="28"/>
+      <c r="L206" s="29"/>
     </row>
     <row r="207" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A207" s="48">
+      <c r="A207" s="56">
         <v>10</v>
       </c>
       <c r="B207" s="5"/>
@@ -6191,7 +6449,7 @@
       <c r="L207" s="54"/>
     </row>
     <row r="208" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A208" s="47"/>
+      <c r="A208" s="57"/>
       <c r="B208" s="5"/>
       <c r="C208" s="50"/>
       <c r="D208" s="5"/>
@@ -6218,9 +6476,11 @@
       <c r="H209" s="16"/>
       <c r="I209" s="16"/>
       <c r="J209" s="17"/>
+      <c r="K209" s="28"/>
+      <c r="L209" s="29"/>
     </row>
     <row r="210" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A210" s="48">
+      <c r="A210" s="56">
         <v>11</v>
       </c>
       <c r="B210" s="5"/>
@@ -6244,7 +6504,7 @@
       <c r="L210" s="54"/>
     </row>
     <row r="211" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A211" s="47"/>
+      <c r="A211" s="57"/>
       <c r="B211" s="5"/>
       <c r="C211" s="50"/>
       <c r="D211" s="5"/>
@@ -6265,9 +6525,11 @@
       <c r="G212" s="16"/>
       <c r="H212" s="16"/>
       <c r="I212" s="16"/>
+      <c r="K212" s="28"/>
+      <c r="L212" s="29"/>
     </row>
     <row r="213" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A213" s="48">
+      <c r="A213" s="56">
         <v>12</v>
       </c>
       <c r="B213" s="5"/>
@@ -6280,7 +6542,7 @@
       </c>
       <c r="F213"/>
       <c r="G213" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H213"/>
       <c r="I213" s="15" t="s">
@@ -6291,14 +6553,14 @@
       <c r="L213" s="54"/>
     </row>
     <row r="214" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A214" s="47"/>
+      <c r="A214" s="57"/>
       <c r="B214" s="5"/>
       <c r="C214" s="50"/>
       <c r="D214" s="5"/>
       <c r="E214" s="51"/>
       <c r="F214"/>
       <c r="G214" s="15" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="H214"/>
       <c r="I214" s="15" t="s">
@@ -6317,9 +6579,11 @@
       <c r="G215" s="16"/>
       <c r="H215" s="16"/>
       <c r="I215" s="16"/>
+      <c r="K215" s="28"/>
+      <c r="L215" s="29"/>
     </row>
     <row r="216" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A216" s="48">
+      <c r="A216" s="56">
         <v>13</v>
       </c>
       <c r="B216" s="5"/>
@@ -6335,15 +6599,15 @@
         <v>286</v>
       </c>
       <c r="H216"/>
-      <c r="I216" s="59" t="s">
-        <v>300</v>
+      <c r="I216" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="J216" s="17"/>
       <c r="K216" s="52"/>
       <c r="L216" s="54"/>
     </row>
     <row r="217" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A217" s="47"/>
+      <c r="A217" s="57"/>
       <c r="B217" s="5"/>
       <c r="C217" s="50"/>
       <c r="D217" s="5"/>
@@ -6353,7 +6617,9 @@
         <v>48</v>
       </c>
       <c r="H217"/>
-      <c r="I217" s="60"/>
+      <c r="I217" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="J217" s="17"/>
       <c r="K217" s="53"/>
       <c r="L217" s="55"/>
@@ -6362,9 +6628,11 @@
       <c r="G218" s="16"/>
       <c r="H218" s="16"/>
       <c r="I218" s="16"/>
+      <c r="K218" s="28"/>
+      <c r="L218" s="29"/>
     </row>
     <row r="219" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A219" s="48">
+      <c r="A219" s="56">
         <v>14</v>
       </c>
       <c r="B219" s="5"/>
@@ -6376,19 +6644,19 @@
         <v>77</v>
       </c>
       <c r="F219"/>
-      <c r="G219" s="58" t="s">
+      <c r="G219" s="27" t="s">
         <v>287</v>
       </c>
       <c r="H219"/>
-      <c r="I219" s="59" t="s">
-        <v>301</v>
+      <c r="I219" s="63" t="s">
+        <v>300</v>
       </c>
       <c r="J219" s="17"/>
       <c r="K219" s="52"/>
       <c r="L219" s="54"/>
     </row>
     <row r="220" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A220" s="47"/>
+      <c r="A220" s="57"/>
       <c r="B220" s="5"/>
       <c r="C220" s="50"/>
       <c r="D220" s="5"/>
@@ -6398,7 +6666,7 @@
         <v>39</v>
       </c>
       <c r="H220"/>
-      <c r="I220" s="60"/>
+      <c r="I220" s="64"/>
       <c r="J220" s="17"/>
       <c r="K220" s="53"/>
       <c r="L220" s="55"/>
@@ -6414,9 +6682,11 @@
       <c r="H221" s="16"/>
       <c r="I221" s="16"/>
       <c r="J221" s="17"/>
+      <c r="K221" s="28"/>
+      <c r="L221" s="29"/>
     </row>
     <row r="222" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A222" s="48">
+      <c r="A222" s="56">
         <v>15</v>
       </c>
       <c r="B222" s="5"/>
@@ -6432,15 +6702,15 @@
         <v>292</v>
       </c>
       <c r="H222"/>
-      <c r="I222" s="59" t="s">
-        <v>302</v>
+      <c r="I222" s="63" t="s">
+        <v>301</v>
       </c>
       <c r="J222" s="17"/>
       <c r="K222" s="52"/>
       <c r="L222" s="54"/>
     </row>
     <row r="223" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A223" s="47"/>
+      <c r="A223" s="57"/>
       <c r="B223" s="5"/>
       <c r="C223" s="50"/>
       <c r="D223" s="5"/>
@@ -6450,7 +6720,7 @@
         <v>293</v>
       </c>
       <c r="H223"/>
-      <c r="I223" s="60"/>
+      <c r="I223" s="64"/>
       <c r="J223" s="17"/>
       <c r="K223" s="53"/>
       <c r="L223" s="55"/>
@@ -6464,9 +6734,11 @@
       <c r="G224" s="16"/>
       <c r="H224" s="16"/>
       <c r="I224" s="16"/>
+      <c r="K224" s="28"/>
+      <c r="L224" s="29"/>
     </row>
     <row r="225" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A225" s="48">
+      <c r="A225" s="56">
         <v>16</v>
       </c>
       <c r="B225" s="5"/>
@@ -6478,8 +6750,8 @@
         <v>86</v>
       </c>
       <c r="F225"/>
-      <c r="G225" s="59" t="s">
-        <v>303</v>
+      <c r="G225" s="63" t="s">
+        <v>302</v>
       </c>
       <c r="H225"/>
       <c r="I225" s="15" t="s">
@@ -6489,13 +6761,13 @@
       <c r="L225" s="54"/>
     </row>
     <row r="226" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A226" s="47"/>
+      <c r="A226" s="57"/>
       <c r="B226" s="5"/>
       <c r="C226" s="50"/>
       <c r="D226" s="5"/>
       <c r="E226" s="51"/>
       <c r="F226"/>
-      <c r="G226" s="60"/>
+      <c r="G226" s="64"/>
       <c r="H226"/>
       <c r="I226" s="15" t="s">
         <v>47</v>
@@ -6512,9 +6784,11 @@
       <c r="G227" s="18"/>
       <c r="H227" s="18"/>
       <c r="I227" s="18"/>
+      <c r="K227" s="28"/>
+      <c r="L227" s="29"/>
     </row>
     <row r="228" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A228" s="48">
+      <c r="A228" s="56">
         <v>17</v>
       </c>
       <c r="B228" s="5"/>
@@ -6530,15 +6804,15 @@
         <v>296</v>
       </c>
       <c r="H228"/>
-      <c r="I228" s="59" t="s">
-        <v>307</v>
+      <c r="I228" s="63" t="s">
+        <v>306</v>
       </c>
       <c r="J228" s="17"/>
       <c r="K228" s="52"/>
       <c r="L228" s="54"/>
     </row>
     <row r="229" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A229" s="47"/>
+      <c r="A229" s="57"/>
       <c r="B229" s="5"/>
       <c r="C229" s="50"/>
       <c r="D229" s="5"/>
@@ -6548,7 +6822,7 @@
         <v>236</v>
       </c>
       <c r="H229"/>
-      <c r="I229" s="60"/>
+      <c r="I229" s="64"/>
       <c r="J229" s="17"/>
       <c r="K229" s="53"/>
       <c r="L229" s="55"/>
@@ -6557,9 +6831,11 @@
       <c r="G230" s="16"/>
       <c r="H230" s="16"/>
       <c r="I230" s="16"/>
+      <c r="K230" s="28"/>
+      <c r="L230" s="29"/>
     </row>
     <row r="231" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A231" s="48">
+      <c r="A231" s="56">
         <v>18</v>
       </c>
       <c r="B231" s="5"/>
@@ -6575,15 +6851,15 @@
         <v>297</v>
       </c>
       <c r="H231"/>
-      <c r="I231" s="59" t="s">
-        <v>308</v>
+      <c r="I231" s="63" t="s">
+        <v>307</v>
       </c>
       <c r="J231" s="17"/>
       <c r="K231" s="52"/>
       <c r="L231" s="54"/>
     </row>
     <row r="232" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A232" s="47"/>
+      <c r="A232" s="57"/>
       <c r="B232" s="5"/>
       <c r="C232" s="50"/>
       <c r="D232" s="5"/>
@@ -6593,7 +6869,7 @@
         <v>58</v>
       </c>
       <c r="H232"/>
-      <c r="I232" s="60"/>
+      <c r="I232" s="64"/>
       <c r="J232" s="17"/>
       <c r="K232" s="53"/>
       <c r="L232" s="55"/>
@@ -6606,9 +6882,11 @@
       <c r="G233" s="16"/>
       <c r="H233" s="16"/>
       <c r="I233" s="16"/>
+      <c r="K233" s="28"/>
+      <c r="L233" s="29"/>
     </row>
     <row r="234" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A234" s="48">
+      <c r="A234" s="56">
         <v>19</v>
       </c>
       <c r="B234" s="5"/>
@@ -6621,18 +6899,18 @@
       </c>
       <c r="F234"/>
       <c r="G234" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H234"/>
       <c r="I234" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J234" s="17"/>
       <c r="K234" s="52"/>
       <c r="L234" s="54"/>
     </row>
     <row r="235" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A235" s="47"/>
+      <c r="A235" s="57"/>
       <c r="B235" s="5"/>
       <c r="C235" s="50"/>
       <c r="D235" s="5"/>
@@ -6654,9 +6932,11 @@
       <c r="G236" s="16"/>
       <c r="H236" s="16"/>
       <c r="I236" s="16"/>
+      <c r="K236" s="28"/>
+      <c r="L236" s="29"/>
     </row>
     <row r="237" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A237" s="48">
+      <c r="A237" s="56">
         <v>20</v>
       </c>
       <c r="B237" s="5"/>
@@ -6669,18 +6949,18 @@
       </c>
       <c r="F237"/>
       <c r="G237" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H237"/>
       <c r="I237" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J237" s="17"/>
       <c r="K237" s="52"/>
       <c r="L237" s="54"/>
     </row>
     <row r="238" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A238" s="47"/>
+      <c r="A238" s="57"/>
       <c r="B238" s="5"/>
       <c r="C238" s="50"/>
       <c r="D238" s="5"/>
@@ -6697,24 +6977,22 @@
       <c r="K238" s="53"/>
       <c r="L238" s="55"/>
     </row>
-    <row r="240" spans="1:12" ht="15" customHeight="1">
-      <c r="A240" s="21" t="s">
+    <row r="239" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A239" s="13"/>
+      <c r="B239" s="13"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="G239" s="18"/>
+      <c r="H239" s="18"/>
+      <c r="I239" s="18"/>
+      <c r="K239" s="28"/>
+      <c r="L239" s="29"/>
+    </row>
+    <row r="241" spans="1:12" ht="15" customHeight="1">
+      <c r="A241" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B240" s="14"/>
-      <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
-      <c r="E240" s="14"/>
-      <c r="F240" s="14"/>
-      <c r="G240" s="14"/>
-      <c r="H240" s="14"/>
-      <c r="I240" s="14"/>
-      <c r="J240" s="14"/>
-      <c r="K240" s="14"/>
-      <c r="L240" s="14"/>
-    </row>
-    <row r="241" spans="1:12" ht="5.0999999999999996" customHeight="1">
-      <c r="A241" s="14"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14"/>
       <c r="D241" s="14"/>
@@ -6727,28 +7005,26 @@
       <c r="K241" s="14"/>
       <c r="L241" s="14"/>
     </row>
-    <row r="242" spans="1:12" ht="11.1" customHeight="1">
-      <c r="A242" s="22" t="s">
+    <row r="242" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A242" s="14"/>
+      <c r="B242" s="14"/>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="14"/>
+      <c r="J242" s="14"/>
+      <c r="K242" s="14"/>
+      <c r="L242" s="14"/>
+    </row>
+    <row r="243" spans="1:12" ht="11.1" customHeight="1">
+      <c r="A243" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B242" s="23" t="s">
+      <c r="B243" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="C242" s="24"/>
-      <c r="D242" s="23"/>
-      <c r="E242" s="23"/>
-      <c r="F242" s="23"/>
-      <c r="G242" s="23"/>
-      <c r="H242" s="23"/>
-      <c r="I242" s="23"/>
-      <c r="J242" s="23"/>
-      <c r="K242" s="23"/>
-      <c r="L242" s="23"/>
-    </row>
-    <row r="243" spans="1:12" ht="11.1" customHeight="1">
-      <c r="A243" s="22"/>
-      <c r="B243" s="23" t="s">
-        <v>95</v>
       </c>
       <c r="C243" s="24"/>
       <c r="D243" s="23"/>
@@ -6762,13 +7038,11 @@
       <c r="L243" s="23"/>
     </row>
     <row r="244" spans="1:12" ht="11.1" customHeight="1">
-      <c r="A244" s="22" t="s">
-        <v>20</v>
-      </c>
+      <c r="A244" s="22"/>
       <c r="B244" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C244" s="25"/>
+        <v>95</v>
+      </c>
+      <c r="C244" s="24"/>
       <c r="D244" s="23"/>
       <c r="E244" s="23"/>
       <c r="F244" s="23"/>
@@ -6780,11 +7054,13 @@
       <c r="L244" s="23"/>
     </row>
     <row r="245" spans="1:12" ht="11.1" customHeight="1">
-      <c r="A245" s="26"/>
+      <c r="A245" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="B245" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C245" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="C245" s="25"/>
       <c r="D245" s="23"/>
       <c r="E245" s="23"/>
       <c r="F245" s="23"/>
@@ -6795,19 +7071,1365 @@
       <c r="K245" s="23"/>
       <c r="L245" s="23"/>
     </row>
+    <row r="246" spans="1:12" ht="11.1" customHeight="1">
+      <c r="A246" s="26"/>
+      <c r="B246" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C246" s="24"/>
+      <c r="D246" s="23"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="23"/>
+      <c r="G246" s="23"/>
+      <c r="H246" s="23"/>
+      <c r="I246" s="23"/>
+      <c r="J246" s="23"/>
+      <c r="K246" s="23"/>
+      <c r="L246" s="23"/>
+    </row>
+    <row r="248" spans="1:12" ht="13.5" thickBot="1"/>
+    <row r="249" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A249" s="30"/>
+      <c r="B249" s="31"/>
+      <c r="C249" s="31"/>
+      <c r="D249" s="31"/>
+      <c r="E249" s="31"/>
+      <c r="F249" s="31"/>
+      <c r="G249" s="31"/>
+      <c r="H249" s="31"/>
+      <c r="I249" s="31"/>
+      <c r="J249" s="31"/>
+      <c r="K249" s="31"/>
+      <c r="L249" s="32"/>
+    </row>
+    <row r="250" spans="1:12" ht="15" customHeight="1">
+      <c r="A250" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250" s="34"/>
+      <c r="C250" s="34"/>
+      <c r="D250" s="34"/>
+      <c r="E250" s="34"/>
+      <c r="F250" s="34"/>
+      <c r="G250" s="34"/>
+      <c r="H250" s="34"/>
+      <c r="I250" s="34"/>
+      <c r="J250" s="34"/>
+      <c r="K250" s="34"/>
+      <c r="L250" s="35"/>
+    </row>
+    <row r="251" spans="1:12" ht="15" customHeight="1">
+      <c r="A251" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B251" s="34"/>
+      <c r="C251" s="34"/>
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
+      <c r="F251" s="34"/>
+      <c r="G251" s="34"/>
+      <c r="H251" s="34"/>
+      <c r="I251" s="34"/>
+      <c r="J251" s="34"/>
+      <c r="K251" s="34"/>
+      <c r="L251" s="35"/>
+    </row>
+    <row r="252" spans="1:12" ht="15" customHeight="1">
+      <c r="A252" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" s="34"/>
+      <c r="C252" s="34"/>
+      <c r="D252" s="34"/>
+      <c r="E252" s="34"/>
+      <c r="F252" s="34"/>
+      <c r="G252" s="34"/>
+      <c r="H252" s="34"/>
+      <c r="I252" s="34"/>
+      <c r="J252" s="34"/>
+      <c r="K252" s="34"/>
+      <c r="L252" s="35"/>
+    </row>
+    <row r="253" spans="1:12" ht="15" customHeight="1">
+      <c r="A253" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" s="37"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="37"/>
+      <c r="E253" s="37"/>
+      <c r="F253" s="37"/>
+      <c r="G253" s="37"/>
+      <c r="H253" s="37"/>
+      <c r="I253" s="37"/>
+      <c r="J253" s="37"/>
+      <c r="K253" s="37"/>
+      <c r="L253" s="38"/>
+    </row>
+    <row r="254" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A254" s="3"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
+      <c r="I254" s="4"/>
+      <c r="J254" s="4"/>
+      <c r="K254" s="4"/>
+      <c r="L254" s="19"/>
+    </row>
+    <row r="255" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
+    </row>
+    <row r="256" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A256" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
+      <c r="E256" s="5"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+      <c r="I256" s="5"/>
+      <c r="J256" s="5"/>
+      <c r="K256" s="5"/>
+      <c r="L256" s="5"/>
+    </row>
+    <row r="257" spans="1:12" ht="9" customHeight="1" thickBot="1">
+      <c r="A257" s="39"/>
+      <c r="B257" s="39"/>
+      <c r="C257" s="39"/>
+      <c r="D257" s="39"/>
+      <c r="E257" s="39"/>
+      <c r="F257" s="39"/>
+      <c r="G257" s="39"/>
+      <c r="H257" s="39"/>
+      <c r="I257" s="39"/>
+      <c r="J257" s="39"/>
+      <c r="K257" s="39"/>
+      <c r="L257" s="39"/>
+    </row>
+    <row r="258" spans="1:12" s="1" customFormat="1" ht="23.1" customHeight="1" thickTop="1">
+      <c r="A258" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B258" s="41"/>
+      <c r="C258" s="41"/>
+      <c r="D258" s="41"/>
+      <c r="E258" s="42"/>
+      <c r="F258" s="7"/>
+      <c r="G258" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H258" s="44"/>
+      <c r="I258" s="45"/>
+      <c r="K258" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="L258" s="46"/>
+    </row>
+    <row r="259" spans="1:12" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="260" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A260" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B260" s="7"/>
+      <c r="C260" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D260" s="7"/>
+      <c r="E260" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F260" s="10"/>
+      <c r="G260" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H260" s="12"/>
+      <c r="I260" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J260" s="7"/>
+      <c r="K260" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L260" s="48"/>
+    </row>
+    <row r="261" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A261" s="13"/>
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
+      <c r="D261" s="13"/>
+      <c r="E261" s="13"/>
+      <c r="G261" s="14"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="14"/>
+    </row>
+    <row r="262" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A262" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B262" s="5"/>
+      <c r="C262" s="49">
+        <f>C237+2</f>
+        <v>123</v>
+      </c>
+      <c r="D262" s="5"/>
+      <c r="E262" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F262"/>
+      <c r="G262" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="H262"/>
+      <c r="I262" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="J262" s="17"/>
+      <c r="K262" s="52"/>
+      <c r="L262" s="54"/>
+    </row>
+    <row r="263" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A263" s="57"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="50"/>
+      <c r="D263" s="5"/>
+      <c r="E263" s="51"/>
+      <c r="F263"/>
+      <c r="G263" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H263"/>
+      <c r="I263" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J263" s="17"/>
+      <c r="K263" s="53"/>
+      <c r="L263" s="55"/>
+    </row>
+    <row r="264" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="G264" s="16"/>
+      <c r="H264" s="16"/>
+      <c r="I264" s="16"/>
+      <c r="K264" s="28"/>
+      <c r="L264" s="29"/>
+    </row>
+    <row r="265" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A265" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B265" s="5"/>
+      <c r="C265" s="49">
+        <f>C262+2</f>
+        <v>125</v>
+      </c>
+      <c r="D265" s="5"/>
+      <c r="E265" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="F265"/>
+      <c r="G265" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="H265"/>
+      <c r="I265" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="J265" s="17"/>
+      <c r="K265" s="52"/>
+      <c r="L265" s="54"/>
+    </row>
+    <row r="266" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A266" s="57"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="50"/>
+      <c r="D266" s="5"/>
+      <c r="E266" s="70"/>
+      <c r="F266"/>
+      <c r="G266" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H266"/>
+      <c r="I266" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J266" s="17"/>
+      <c r="K266" s="53"/>
+      <c r="L266" s="55"/>
+    </row>
+    <row r="267" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A267" s="13"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
+      <c r="G267" s="16"/>
+      <c r="H267" s="16"/>
+      <c r="I267" s="16"/>
+      <c r="K267" s="28"/>
+      <c r="L267" s="29"/>
+    </row>
+    <row r="268" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A268" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B268" s="5"/>
+      <c r="C268" s="49">
+        <f>C265+2</f>
+        <v>127</v>
+      </c>
+      <c r="D268" s="5"/>
+      <c r="E268" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="F268"/>
+      <c r="G268" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H268"/>
+      <c r="I268" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="J268" s="17"/>
+      <c r="K268" s="52"/>
+      <c r="L268" s="54"/>
+    </row>
+    <row r="269" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A269" s="57"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="50"/>
+      <c r="D269" s="5"/>
+      <c r="E269" s="70"/>
+      <c r="F269"/>
+      <c r="G269" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H269"/>
+      <c r="I269" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J269" s="17"/>
+      <c r="K269" s="53"/>
+      <c r="L269" s="55"/>
+    </row>
+    <row r="270" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="E270" s="13"/>
+      <c r="G270" s="16"/>
+      <c r="H270" s="16"/>
+      <c r="I270" s="16"/>
+      <c r="K270" s="28"/>
+      <c r="L270" s="29"/>
+    </row>
+    <row r="271" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A271" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B271" s="5"/>
+      <c r="C271" s="49">
+        <f>C268+2</f>
+        <v>129</v>
+      </c>
+      <c r="D271" s="5"/>
+      <c r="E271" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="F271"/>
+      <c r="G271" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H271"/>
+      <c r="I271" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="J271" s="17"/>
+      <c r="K271" s="52"/>
+      <c r="L271" s="54"/>
+    </row>
+    <row r="272" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A272" s="57"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="50"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="70"/>
+      <c r="F272"/>
+      <c r="G272" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H272"/>
+      <c r="I272" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J272" s="17"/>
+      <c r="K272" s="53"/>
+      <c r="L272" s="55"/>
+    </row>
+    <row r="273" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="13"/>
+      <c r="G273" s="16"/>
+      <c r="H273" s="16"/>
+      <c r="I273" s="16"/>
+      <c r="J273" s="17"/>
+      <c r="K273" s="28"/>
+      <c r="L273" s="29"/>
+    </row>
+    <row r="274" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A274" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B274" s="5"/>
+      <c r="C274" s="49">
+        <f>C271+2</f>
+        <v>131</v>
+      </c>
+      <c r="D274" s="5"/>
+      <c r="E274" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="F274"/>
+      <c r="G274" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="H274"/>
+      <c r="I274" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="J274" s="17"/>
+      <c r="K274" s="52"/>
+      <c r="L274" s="54"/>
+    </row>
+    <row r="275" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A275" s="57"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="50"/>
+      <c r="D275" s="5"/>
+      <c r="E275" s="70"/>
+      <c r="F275"/>
+      <c r="G275" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H275"/>
+      <c r="I275" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J275" s="17"/>
+      <c r="K275" s="53"/>
+      <c r="L275" s="55"/>
+    </row>
+    <row r="276" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A276" s="13"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="13"/>
+      <c r="D276" s="13"/>
+      <c r="G276" s="16"/>
+      <c r="H276" s="16"/>
+      <c r="I276" s="16"/>
+      <c r="K276" s="28"/>
+      <c r="L276" s="29"/>
+    </row>
+    <row r="277" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A277" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B277" s="5"/>
+      <c r="C277" s="49">
+        <f>C274+2</f>
+        <v>133</v>
+      </c>
+      <c r="D277" s="5"/>
+      <c r="E277" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="F277"/>
+      <c r="G277" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="H277"/>
+      <c r="I277" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="K277" s="52"/>
+      <c r="L277" s="54"/>
+    </row>
+    <row r="278" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A278" s="71"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="50"/>
+      <c r="D278" s="5"/>
+      <c r="E278" s="51"/>
+      <c r="F278"/>
+      <c r="G278" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H278"/>
+      <c r="I278" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K278" s="53"/>
+      <c r="L278" s="55"/>
+    </row>
+    <row r="279" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A279" s="13"/>
+      <c r="B279" s="13"/>
+      <c r="C279" s="13"/>
+      <c r="D279" s="13"/>
+      <c r="G279" s="16"/>
+      <c r="H279" s="16"/>
+      <c r="I279" s="16"/>
+      <c r="K279" s="28"/>
+      <c r="L279" s="29"/>
+    </row>
+    <row r="280" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A280" s="56">
+        <v>7</v>
+      </c>
+      <c r="B280" s="5"/>
+      <c r="C280" s="49">
+        <f>C277+2</f>
+        <v>135</v>
+      </c>
+      <c r="D280" s="5"/>
+      <c r="E280" s="51"/>
+      <c r="F280"/>
+      <c r="G280" s="15"/>
+      <c r="H280"/>
+      <c r="I280" s="15"/>
+      <c r="J280" s="17"/>
+      <c r="K280" s="52"/>
+      <c r="L280" s="54"/>
+    </row>
+    <row r="281" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A281" s="57"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="50"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="51"/>
+      <c r="F281"/>
+      <c r="G281" s="15"/>
+      <c r="H281"/>
+      <c r="I281" s="15"/>
+      <c r="J281" s="17"/>
+      <c r="K281" s="53"/>
+      <c r="L281" s="55"/>
+    </row>
+    <row r="282" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="G282" s="16"/>
+      <c r="H282" s="16"/>
+      <c r="I282" s="16"/>
+      <c r="K282" s="28"/>
+      <c r="L282" s="29"/>
+    </row>
+    <row r="283" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A283" s="56">
+        <v>8</v>
+      </c>
+      <c r="B283" s="5"/>
+      <c r="C283" s="49">
+        <f>C280+2</f>
+        <v>137</v>
+      </c>
+      <c r="D283" s="5"/>
+      <c r="E283" s="51"/>
+      <c r="F283"/>
+      <c r="G283" s="15"/>
+      <c r="H283"/>
+      <c r="I283" s="15"/>
+      <c r="J283" s="17"/>
+      <c r="K283" s="52"/>
+      <c r="L283" s="54"/>
+    </row>
+    <row r="284" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A284" s="57"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="50"/>
+      <c r="D284" s="5"/>
+      <c r="E284" s="51"/>
+      <c r="F284"/>
+      <c r="G284" s="15"/>
+      <c r="H284"/>
+      <c r="I284" s="15"/>
+      <c r="J284" s="17"/>
+      <c r="K284" s="53"/>
+      <c r="L284" s="55"/>
+    </row>
+    <row r="285" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A285" s="13"/>
+      <c r="B285" s="13"/>
+      <c r="D285" s="13"/>
+      <c r="E285" s="13"/>
+      <c r="G285" s="16"/>
+      <c r="H285" s="16"/>
+      <c r="I285" s="16"/>
+      <c r="K285" s="28"/>
+      <c r="L285" s="29"/>
+    </row>
+    <row r="286" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A286" s="56">
+        <v>9</v>
+      </c>
+      <c r="B286" s="5"/>
+      <c r="C286" s="49">
+        <f>C283+2</f>
+        <v>139</v>
+      </c>
+      <c r="D286" s="5"/>
+      <c r="E286" s="67"/>
+      <c r="F286"/>
+      <c r="G286" s="15"/>
+      <c r="H286"/>
+      <c r="I286" s="15"/>
+      <c r="J286" s="17"/>
+      <c r="K286" s="52"/>
+      <c r="L286" s="54"/>
+    </row>
+    <row r="287" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A287" s="57"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="50"/>
+      <c r="D287" s="5"/>
+      <c r="E287" s="68"/>
+      <c r="F287"/>
+      <c r="G287" s="15"/>
+      <c r="H287"/>
+      <c r="I287" s="15"/>
+      <c r="J287" s="17"/>
+      <c r="K287" s="53"/>
+      <c r="L287" s="55"/>
+    </row>
+    <row r="288" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="C288" s="13"/>
+      <c r="G288" s="16"/>
+      <c r="H288" s="16"/>
+      <c r="I288" s="16"/>
+      <c r="K288" s="28"/>
+      <c r="L288" s="29"/>
+    </row>
+    <row r="289" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A289" s="56">
+        <v>10</v>
+      </c>
+      <c r="B289" s="5"/>
+      <c r="C289" s="49">
+        <f>C286+2</f>
+        <v>141</v>
+      </c>
+      <c r="D289" s="5"/>
+      <c r="E289" s="67"/>
+      <c r="F289"/>
+      <c r="G289" s="15"/>
+      <c r="H289"/>
+      <c r="I289" s="15"/>
+      <c r="J289" s="17"/>
+      <c r="K289" s="52"/>
+      <c r="L289" s="54"/>
+    </row>
+    <row r="290" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A290" s="57"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="50"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="68"/>
+      <c r="F290"/>
+      <c r="G290" s="15"/>
+      <c r="H290"/>
+      <c r="I290" s="15"/>
+      <c r="J290" s="17"/>
+      <c r="K290" s="53"/>
+      <c r="L290" s="55"/>
+    </row>
+    <row r="291" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="17"/>
+      <c r="G291" s="16"/>
+      <c r="H291" s="16"/>
+      <c r="I291" s="16"/>
+      <c r="J291" s="17"/>
+      <c r="K291" s="28"/>
+      <c r="L291" s="29"/>
+    </row>
+    <row r="292" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A292" s="56">
+        <v>11</v>
+      </c>
+      <c r="B292" s="5"/>
+      <c r="C292" s="49">
+        <f>C289+2</f>
+        <v>143</v>
+      </c>
+      <c r="D292" s="5"/>
+      <c r="E292" s="67"/>
+      <c r="F292"/>
+      <c r="G292" s="15"/>
+      <c r="H292"/>
+      <c r="I292" s="15"/>
+      <c r="J292" s="17"/>
+      <c r="K292" s="52"/>
+      <c r="L292" s="54"/>
+    </row>
+    <row r="293" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A293" s="57"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="50"/>
+      <c r="D293" s="5"/>
+      <c r="E293" s="68"/>
+      <c r="F293"/>
+      <c r="G293" s="15"/>
+      <c r="H293"/>
+      <c r="I293" s="15"/>
+      <c r="J293" s="17"/>
+      <c r="K293" s="53"/>
+      <c r="L293" s="55"/>
+    </row>
+    <row r="294" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="G294" s="16"/>
+      <c r="H294" s="16"/>
+      <c r="I294" s="16"/>
+      <c r="K294" s="28"/>
+      <c r="L294" s="29"/>
+    </row>
+    <row r="295" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A295" s="56">
+        <v>12</v>
+      </c>
+      <c r="B295" s="5"/>
+      <c r="C295" s="49">
+        <f>C292+2</f>
+        <v>145</v>
+      </c>
+      <c r="D295" s="5"/>
+      <c r="E295" s="67"/>
+      <c r="F295"/>
+      <c r="G295" s="15"/>
+      <c r="H295"/>
+      <c r="I295" s="15"/>
+      <c r="J295" s="17"/>
+      <c r="K295" s="52"/>
+      <c r="L295" s="54"/>
+    </row>
+    <row r="296" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A296" s="57"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="50"/>
+      <c r="D296" s="5"/>
+      <c r="E296" s="68"/>
+      <c r="F296"/>
+      <c r="G296" s="15"/>
+      <c r="H296"/>
+      <c r="I296" s="15"/>
+      <c r="J296" s="17"/>
+      <c r="K296" s="53"/>
+      <c r="L296" s="55"/>
+    </row>
+    <row r="297" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A297" s="13"/>
+      <c r="B297" s="13"/>
+      <c r="C297" s="13"/>
+      <c r="D297" s="13"/>
+      <c r="E297" s="13"/>
+      <c r="G297" s="16"/>
+      <c r="H297" s="16"/>
+      <c r="I297" s="16"/>
+      <c r="K297" s="28"/>
+      <c r="L297" s="29"/>
+    </row>
+    <row r="298" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A298" s="56">
+        <v>13</v>
+      </c>
+      <c r="B298" s="5"/>
+      <c r="C298" s="49">
+        <f>C295+2</f>
+        <v>147</v>
+      </c>
+      <c r="D298" s="5"/>
+      <c r="E298" s="67"/>
+      <c r="F298"/>
+      <c r="G298" s="15"/>
+      <c r="H298"/>
+      <c r="I298" s="15"/>
+      <c r="J298" s="17"/>
+      <c r="K298" s="52"/>
+      <c r="L298" s="54"/>
+    </row>
+    <row r="299" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A299" s="57"/>
+      <c r="B299" s="5"/>
+      <c r="C299" s="50"/>
+      <c r="D299" s="5"/>
+      <c r="E299" s="68"/>
+      <c r="F299"/>
+      <c r="G299" s="15"/>
+      <c r="H299"/>
+      <c r="I299" s="15"/>
+      <c r="J299" s="17"/>
+      <c r="K299" s="53"/>
+      <c r="L299" s="55"/>
+    </row>
+    <row r="300" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="G300" s="16"/>
+      <c r="H300" s="16"/>
+      <c r="I300" s="16"/>
+      <c r="K300" s="28"/>
+      <c r="L300" s="29"/>
+    </row>
+    <row r="301" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A301" s="56">
+        <v>14</v>
+      </c>
+      <c r="B301" s="5"/>
+      <c r="C301" s="49">
+        <f>C298+2</f>
+        <v>149</v>
+      </c>
+      <c r="D301" s="5"/>
+      <c r="E301" s="67"/>
+      <c r="F301"/>
+      <c r="G301" s="27"/>
+      <c r="H301"/>
+      <c r="I301" s="63"/>
+      <c r="J301" s="17"/>
+      <c r="K301" s="52"/>
+      <c r="L301" s="54"/>
+    </row>
+    <row r="302" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A302" s="57"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="50"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="68"/>
+      <c r="F302"/>
+      <c r="G302" s="15"/>
+      <c r="H302"/>
+      <c r="I302" s="64"/>
+      <c r="J302" s="17"/>
+      <c r="K302" s="53"/>
+      <c r="L302" s="55"/>
+    </row>
+    <row r="303" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A303" s="5"/>
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="17"/>
+      <c r="G303" s="16"/>
+      <c r="H303" s="16"/>
+      <c r="I303" s="16"/>
+      <c r="J303" s="17"/>
+      <c r="K303" s="28"/>
+      <c r="L303" s="29"/>
+    </row>
+    <row r="304" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A304" s="56">
+        <v>15</v>
+      </c>
+      <c r="B304" s="5"/>
+      <c r="C304" s="49">
+        <f>C301+2</f>
+        <v>151</v>
+      </c>
+      <c r="D304" s="5"/>
+      <c r="E304" s="67"/>
+      <c r="F304"/>
+      <c r="G304" s="15"/>
+      <c r="H304"/>
+      <c r="I304" s="63"/>
+      <c r="J304" s="17"/>
+      <c r="K304" s="52"/>
+      <c r="L304" s="54"/>
+    </row>
+    <row r="305" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A305" s="57"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="50"/>
+      <c r="D305" s="5"/>
+      <c r="E305" s="68"/>
+      <c r="F305"/>
+      <c r="G305" s="15"/>
+      <c r="H305"/>
+      <c r="I305" s="64"/>
+      <c r="J305" s="17"/>
+      <c r="K305" s="53"/>
+      <c r="L305" s="55"/>
+    </row>
+    <row r="306" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A306" s="13"/>
+      <c r="B306" s="13"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="13"/>
+      <c r="E306" s="13"/>
+      <c r="G306" s="16"/>
+      <c r="H306" s="16"/>
+      <c r="I306" s="16"/>
+      <c r="K306" s="28"/>
+      <c r="L306" s="29"/>
+    </row>
+    <row r="307" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A307" s="56">
+        <v>16</v>
+      </c>
+      <c r="B307" s="5"/>
+      <c r="C307" s="49">
+        <f>C304+2</f>
+        <v>153</v>
+      </c>
+      <c r="D307" s="5"/>
+      <c r="E307" s="67"/>
+      <c r="F307"/>
+      <c r="G307" s="63"/>
+      <c r="H307"/>
+      <c r="I307" s="15"/>
+      <c r="K307" s="52"/>
+      <c r="L307" s="54"/>
+    </row>
+    <row r="308" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A308" s="57"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="50"/>
+      <c r="D308" s="5"/>
+      <c r="E308" s="68"/>
+      <c r="F308"/>
+      <c r="G308" s="64"/>
+      <c r="H308"/>
+      <c r="I308" s="15"/>
+      <c r="K308" s="53"/>
+      <c r="L308" s="55"/>
+    </row>
+    <row r="309" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A309" s="13"/>
+      <c r="B309" s="13"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="13"/>
+      <c r="E309" s="13"/>
+      <c r="G309" s="18"/>
+      <c r="H309" s="18"/>
+      <c r="I309" s="18"/>
+      <c r="K309" s="28"/>
+      <c r="L309" s="29"/>
+    </row>
+    <row r="310" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A310" s="56">
+        <v>17</v>
+      </c>
+      <c r="B310" s="5"/>
+      <c r="C310" s="49">
+        <f>C307+2</f>
+        <v>155</v>
+      </c>
+      <c r="D310" s="5"/>
+      <c r="E310" s="67"/>
+      <c r="F310"/>
+      <c r="G310" s="15"/>
+      <c r="H310"/>
+      <c r="I310" s="63"/>
+      <c r="J310" s="17"/>
+      <c r="K310" s="52"/>
+      <c r="L310" s="54"/>
+    </row>
+    <row r="311" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A311" s="57"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="50"/>
+      <c r="D311" s="5"/>
+      <c r="E311" s="68"/>
+      <c r="F311"/>
+      <c r="G311" s="15"/>
+      <c r="H311"/>
+      <c r="I311" s="64"/>
+      <c r="J311" s="17"/>
+      <c r="K311" s="53"/>
+      <c r="L311" s="55"/>
+    </row>
+    <row r="312" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="G312" s="16"/>
+      <c r="H312" s="16"/>
+      <c r="I312" s="16"/>
+      <c r="K312" s="28"/>
+      <c r="L312" s="29"/>
+    </row>
+    <row r="313" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A313" s="56">
+        <v>18</v>
+      </c>
+      <c r="B313" s="5"/>
+      <c r="C313" s="49">
+        <f>C310+2</f>
+        <v>157</v>
+      </c>
+      <c r="D313" s="5"/>
+      <c r="E313" s="67"/>
+      <c r="F313"/>
+      <c r="G313" s="15"/>
+      <c r="H313"/>
+      <c r="I313" s="63"/>
+      <c r="J313" s="17"/>
+      <c r="K313" s="52"/>
+      <c r="L313" s="54"/>
+    </row>
+    <row r="314" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A314" s="57"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="50"/>
+      <c r="D314" s="5"/>
+      <c r="E314" s="68"/>
+      <c r="F314"/>
+      <c r="G314" s="15"/>
+      <c r="H314"/>
+      <c r="I314" s="64"/>
+      <c r="J314" s="17"/>
+      <c r="K314" s="53"/>
+      <c r="L314" s="55"/>
+    </row>
+    <row r="315" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A315" s="13"/>
+      <c r="B315" s="13"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
+      <c r="G315" s="16"/>
+      <c r="H315" s="16"/>
+      <c r="I315" s="16"/>
+      <c r="K315" s="28"/>
+      <c r="L315" s="29"/>
+    </row>
+    <row r="316" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A316" s="56">
+        <v>19</v>
+      </c>
+      <c r="B316" s="5"/>
+      <c r="C316" s="49">
+        <f>C313+2</f>
+        <v>159</v>
+      </c>
+      <c r="D316" s="5"/>
+      <c r="E316" s="67"/>
+      <c r="F316"/>
+      <c r="G316" s="15"/>
+      <c r="H316"/>
+      <c r="I316" s="15"/>
+      <c r="J316" s="17"/>
+      <c r="K316" s="52"/>
+      <c r="L316" s="54"/>
+    </row>
+    <row r="317" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A317" s="57"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="50"/>
+      <c r="D317" s="5"/>
+      <c r="E317" s="68"/>
+      <c r="F317"/>
+      <c r="G317" s="15"/>
+      <c r="H317"/>
+      <c r="I317" s="15"/>
+      <c r="J317" s="17"/>
+      <c r="K317" s="53"/>
+      <c r="L317" s="55"/>
+    </row>
+    <row r="318" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="C318" s="13"/>
+      <c r="G318" s="16"/>
+      <c r="H318" s="16"/>
+      <c r="I318" s="16"/>
+      <c r="K318" s="28"/>
+      <c r="L318" s="29"/>
+    </row>
+    <row r="319" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A319" s="56">
+        <v>20</v>
+      </c>
+      <c r="B319" s="5"/>
+      <c r="C319" s="49">
+        <f>C316+2</f>
+        <v>161</v>
+      </c>
+      <c r="D319" s="5"/>
+      <c r="E319" s="67"/>
+      <c r="F319"/>
+      <c r="G319" s="15"/>
+      <c r="H319"/>
+      <c r="I319" s="15"/>
+      <c r="J319" s="17"/>
+      <c r="K319" s="52"/>
+      <c r="L319" s="54"/>
+    </row>
+    <row r="320" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A320" s="57"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="50"/>
+      <c r="D320" s="5"/>
+      <c r="E320" s="68"/>
+      <c r="F320"/>
+      <c r="G320" s="15"/>
+      <c r="H320"/>
+      <c r="I320" s="15"/>
+      <c r="J320" s="17"/>
+      <c r="K320" s="53"/>
+      <c r="L320" s="55"/>
+    </row>
+    <row r="321" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A321" s="13"/>
+      <c r="B321" s="13"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="13"/>
+      <c r="E321" s="13"/>
+      <c r="G321" s="18"/>
+      <c r="H321" s="18"/>
+      <c r="I321" s="18"/>
+      <c r="K321" s="28"/>
+      <c r="L321" s="29"/>
+    </row>
+    <row r="323" spans="1:12" ht="15" customHeight="1">
+      <c r="A323" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="14"/>
+      <c r="F323" s="14"/>
+      <c r="G323" s="14"/>
+      <c r="H323" s="14"/>
+      <c r="I323" s="14"/>
+      <c r="J323" s="14"/>
+      <c r="K323" s="14"/>
+      <c r="L323" s="14"/>
+    </row>
+    <row r="324" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A324" s="14"/>
+      <c r="B324" s="14"/>
+      <c r="C324" s="14"/>
+      <c r="D324" s="14"/>
+      <c r="E324" s="14"/>
+      <c r="F324" s="14"/>
+      <c r="G324" s="14"/>
+      <c r="H324" s="14"/>
+      <c r="I324" s="14"/>
+      <c r="J324" s="14"/>
+      <c r="K324" s="14"/>
+      <c r="L324" s="14"/>
+    </row>
+    <row r="325" spans="1:12" ht="11.1" customHeight="1">
+      <c r="A325" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B325" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C325" s="24"/>
+      <c r="D325" s="23"/>
+      <c r="E325" s="23"/>
+      <c r="F325" s="23"/>
+      <c r="G325" s="23"/>
+      <c r="H325" s="23"/>
+      <c r="I325" s="23"/>
+      <c r="J325" s="23"/>
+      <c r="K325" s="23"/>
+      <c r="L325" s="23"/>
+    </row>
+    <row r="326" spans="1:12" ht="11.1" customHeight="1">
+      <c r="A326" s="22"/>
+      <c r="B326" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C326" s="24"/>
+      <c r="D326" s="23"/>
+      <c r="E326" s="23"/>
+      <c r="F326" s="23"/>
+      <c r="G326" s="23"/>
+      <c r="H326" s="23"/>
+      <c r="I326" s="23"/>
+      <c r="J326" s="23"/>
+      <c r="K326" s="23"/>
+      <c r="L326" s="23"/>
+    </row>
+    <row r="327" spans="1:12" ht="11.1" customHeight="1">
+      <c r="A327" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B327" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C327" s="25"/>
+      <c r="D327" s="23"/>
+      <c r="E327" s="23"/>
+      <c r="F327" s="23"/>
+      <c r="G327" s="23"/>
+      <c r="H327" s="23"/>
+      <c r="I327" s="23"/>
+      <c r="J327" s="23"/>
+      <c r="K327" s="23"/>
+      <c r="L327" s="23"/>
+    </row>
+    <row r="328" spans="1:12" ht="11.1" customHeight="1">
+      <c r="A328" s="26"/>
+      <c r="B328" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C328" s="24"/>
+      <c r="D328" s="23"/>
+      <c r="E328" s="23"/>
+      <c r="F328" s="23"/>
+      <c r="G328" s="23"/>
+      <c r="H328" s="23"/>
+      <c r="I328" s="23"/>
+      <c r="J328" s="23"/>
+      <c r="K328" s="23"/>
+      <c r="L328" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="341">
+  <mergeCells count="455">
+    <mergeCell ref="A319:A320"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="E319:E320"/>
+    <mergeCell ref="K319:K320"/>
+    <mergeCell ref="L319:L320"/>
+    <mergeCell ref="A313:A314"/>
+    <mergeCell ref="C313:C314"/>
+    <mergeCell ref="E313:E314"/>
+    <mergeCell ref="I313:I314"/>
+    <mergeCell ref="K313:K314"/>
+    <mergeCell ref="L313:L314"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="E316:E317"/>
+    <mergeCell ref="K316:K317"/>
+    <mergeCell ref="L316:L317"/>
+    <mergeCell ref="A307:A308"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="E307:E308"/>
+    <mergeCell ref="G307:G308"/>
+    <mergeCell ref="K307:K308"/>
+    <mergeCell ref="L307:L308"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="E310:E311"/>
+    <mergeCell ref="I310:I311"/>
+    <mergeCell ref="K310:K311"/>
+    <mergeCell ref="L310:L311"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="E301:E302"/>
+    <mergeCell ref="I301:I302"/>
+    <mergeCell ref="K301:K302"/>
+    <mergeCell ref="L301:L302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="E304:E305"/>
+    <mergeCell ref="I304:I305"/>
+    <mergeCell ref="K304:K305"/>
+    <mergeCell ref="L304:L305"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="E295:E296"/>
+    <mergeCell ref="K295:K296"/>
+    <mergeCell ref="L295:L296"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="E298:E299"/>
+    <mergeCell ref="K298:K299"/>
+    <mergeCell ref="L298:L299"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="K289:K290"/>
+    <mergeCell ref="L289:L290"/>
+    <mergeCell ref="A292:A293"/>
+    <mergeCell ref="C292:C293"/>
+    <mergeCell ref="E292:E293"/>
+    <mergeCell ref="K292:K293"/>
+    <mergeCell ref="L292:L293"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="K283:K284"/>
+    <mergeCell ref="L283:L284"/>
+    <mergeCell ref="A286:A287"/>
+    <mergeCell ref="C286:C287"/>
+    <mergeCell ref="E286:E287"/>
+    <mergeCell ref="K286:K287"/>
+    <mergeCell ref="L286:L287"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="K277:K278"/>
+    <mergeCell ref="L277:L278"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="E280:E281"/>
+    <mergeCell ref="K280:K281"/>
+    <mergeCell ref="L280:L281"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="K271:K272"/>
+    <mergeCell ref="L271:L272"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="C274:C275"/>
+    <mergeCell ref="E274:E275"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="L274:L275"/>
+    <mergeCell ref="A265:A266"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="E265:E266"/>
+    <mergeCell ref="K265:K266"/>
+    <mergeCell ref="L265:L266"/>
+    <mergeCell ref="A268:A269"/>
+    <mergeCell ref="C268:C269"/>
+    <mergeCell ref="E268:E269"/>
+    <mergeCell ref="K268:K269"/>
+    <mergeCell ref="L268:L269"/>
+    <mergeCell ref="A251:L251"/>
+    <mergeCell ref="A252:L252"/>
+    <mergeCell ref="A253:L253"/>
+    <mergeCell ref="A257:L257"/>
+    <mergeCell ref="A258:E258"/>
+    <mergeCell ref="G258:I258"/>
+    <mergeCell ref="K258:L258"/>
+    <mergeCell ref="K260:L260"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="K262:K263"/>
+    <mergeCell ref="L262:L263"/>
+    <mergeCell ref="A249:L249"/>
+    <mergeCell ref="A250:L250"/>
     <mergeCell ref="L225:L226"/>
     <mergeCell ref="L228:L229"/>
     <mergeCell ref="L231:L232"/>
     <mergeCell ref="L234:L235"/>
     <mergeCell ref="L237:L238"/>
-    <mergeCell ref="I216:I217"/>
     <mergeCell ref="I219:I220"/>
     <mergeCell ref="I222:I223"/>
     <mergeCell ref="G225:G226"/>
     <mergeCell ref="I228:I229"/>
     <mergeCell ref="I231:I232"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="K228:K229"/>
+    <mergeCell ref="K231:K232"/>
+    <mergeCell ref="K234:K235"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="K222:K223"/>
     <mergeCell ref="L198:L199"/>
     <mergeCell ref="L201:L202"/>
     <mergeCell ref="L204:L205"/>
@@ -6826,6 +8448,7 @@
     <mergeCell ref="L189:L190"/>
     <mergeCell ref="L192:L193"/>
     <mergeCell ref="L195:L196"/>
+    <mergeCell ref="K178:L178"/>
     <mergeCell ref="L122:L123"/>
     <mergeCell ref="L125:L126"/>
     <mergeCell ref="L128:L129"/>
@@ -6844,11 +8467,6 @@
     <mergeCell ref="L113:L114"/>
     <mergeCell ref="L116:L117"/>
     <mergeCell ref="L119:L120"/>
-    <mergeCell ref="K225:K226"/>
-    <mergeCell ref="K228:K229"/>
-    <mergeCell ref="K231:K232"/>
-    <mergeCell ref="K234:K235"/>
-    <mergeCell ref="K237:K238"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="L20:L21"/>
@@ -6876,7 +8494,6 @@
     <mergeCell ref="K213:K214"/>
     <mergeCell ref="K216:K217"/>
     <mergeCell ref="K219:K220"/>
-    <mergeCell ref="K222:K223"/>
     <mergeCell ref="K149:K150"/>
     <mergeCell ref="K152:K153"/>
     <mergeCell ref="K155:K156"/>
@@ -7057,16 +8674,20 @@
     <mergeCell ref="A213:A214"/>
     <mergeCell ref="A216:A217"/>
     <mergeCell ref="A219:A220"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A152:A153"/>
     <mergeCell ref="A155:A156"/>
     <mergeCell ref="A180:A181"/>
     <mergeCell ref="A183:A184"/>
     <mergeCell ref="A186:A187"/>
     <mergeCell ref="A189:A190"/>
     <mergeCell ref="A192:A193"/>
-    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="A170:L170"/>
+    <mergeCell ref="A171:L171"/>
+    <mergeCell ref="A175:L175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
@@ -7076,17 +8697,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="A101:A102"/>
@@ -7094,12 +8704,6 @@
     <mergeCell ref="A167:L167"/>
     <mergeCell ref="A168:L168"/>
     <mergeCell ref="A169:L169"/>
-    <mergeCell ref="A170:L170"/>
-    <mergeCell ref="A171:L171"/>
-    <mergeCell ref="A175:L175"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="K176:L176"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="A110:A111"/>
@@ -7114,6 +8718,9 @@
     <mergeCell ref="A137:A138"/>
     <mergeCell ref="A140:A141"/>
     <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A152:A153"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="A82:L82"/>
     <mergeCell ref="A83:L83"/>
@@ -7129,6 +8736,15 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="K71:K72"/>
     <mergeCell ref="L71:L72"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A59:A60"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
@@ -7140,7 +8756,7 @@
     <mergeCell ref="K10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7149,10 +8765,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L245"/>
+  <dimension ref="A1:L327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="E240" sqref="E240"/>
+    <sheetView topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C237" sqref="C237:C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -7928,82 +9544,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A6" s="3"/>
@@ -8050,37 +9666,37 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" ht="9" customHeight="1">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="K10" s="40" t="s">
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="K10" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="L10" s="43"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1">
@@ -8104,10 +9720,10 @@
         <v>12</v>
       </c>
       <c r="J12" s="7"/>
-      <c r="K12" s="44" t="s">
+      <c r="K12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="45"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A13" s="13"/>
@@ -8120,7 +9736,7 @@
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="5"/>
@@ -8140,15 +9756,15 @@
         <v>166</v>
       </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="61">
+      <c r="K14" s="52">
         <v>0</v>
       </c>
-      <c r="L14" s="66">
+      <c r="L14" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="5"/>
       <c r="C15" s="50"/>
       <c r="D15" s="5"/>
@@ -8162,18 +9778,18 @@
         <v>120</v>
       </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="67"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="68"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="58" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="5"/>
@@ -8193,15 +9809,15 @@
         <v>169</v>
       </c>
       <c r="J17" s="17"/>
-      <c r="K17" s="61">
+      <c r="K17" s="52">
         <v>5</v>
       </c>
-      <c r="L17" s="66">
+      <c r="L17" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A18" s="47"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="5"/>
       <c r="C18" s="50"/>
       <c r="D18" s="5"/>
@@ -8215,8 +9831,8 @@
         <v>171</v>
       </c>
       <c r="J18" s="17"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="67"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A19" s="13"/>
@@ -8227,11 +9843,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="68"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="5"/>
@@ -8251,15 +9867,15 @@
         <v>173</v>
       </c>
       <c r="J20" s="17"/>
-      <c r="K20" s="61">
+      <c r="K20" s="52">
         <v>5</v>
       </c>
-      <c r="L20" s="66">
+      <c r="L20" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="5"/>
       <c r="C21" s="50"/>
       <c r="D21" s="5"/>
@@ -8273,18 +9889,18 @@
         <v>175</v>
       </c>
       <c r="J21" s="17"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="67"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="68"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="5"/>
@@ -8304,15 +9920,15 @@
         <v>177</v>
       </c>
       <c r="J23" s="17"/>
-      <c r="K23" s="61">
+      <c r="K23" s="52">
         <v>5</v>
       </c>
-      <c r="L23" s="66">
+      <c r="L23" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="5"/>
       <c r="C24" s="50"/>
       <c r="D24" s="5"/>
@@ -8326,8 +9942,8 @@
         <v>64</v>
       </c>
       <c r="J24" s="17"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="67"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A25" s="5"/>
@@ -8340,11 +9956,11 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="68"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="5"/>
@@ -8364,15 +9980,15 @@
         <v>179</v>
       </c>
       <c r="J26" s="17"/>
-      <c r="K26" s="61">
+      <c r="K26" s="52">
         <v>5</v>
       </c>
-      <c r="L26" s="66">
+      <c r="L26" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A27" s="47"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="5"/>
       <c r="C27" s="50"/>
       <c r="D27" s="5"/>
@@ -8386,8 +10002,8 @@
         <v>160</v>
       </c>
       <c r="J27" s="17"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="67"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A28" s="13"/>
@@ -8398,11 +10014,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="68"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="5"/>
@@ -8421,15 +10037,15 @@
       <c r="I29" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="61">
+      <c r="K29" s="52">
         <v>0</v>
       </c>
-      <c r="L29" s="66">
+      <c r="L29" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A30" s="47"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="5"/>
       <c r="C30" s="50"/>
       <c r="D30" s="5"/>
@@ -8442,8 +10058,8 @@
       <c r="I30" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="K30" s="62"/>
-      <c r="L30" s="67"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A31" s="13"/>
@@ -8454,11 +10070,11 @@
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="68"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A32" s="48">
+      <c r="A32" s="56">
         <v>7</v>
       </c>
       <c r="B32" s="5"/>
@@ -8478,15 +10094,15 @@
         <v>184</v>
       </c>
       <c r="J32" s="17"/>
-      <c r="K32" s="61">
+      <c r="K32" s="52">
         <v>4</v>
       </c>
-      <c r="L32" s="66">
+      <c r="L32" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="57"/>
       <c r="B33" s="5"/>
       <c r="C33" s="50"/>
       <c r="D33" s="5"/>
@@ -8500,18 +10116,18 @@
         <v>120</v>
       </c>
       <c r="J33" s="17"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="67"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="55"/>
     </row>
     <row r="34" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="68"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A35" s="48">
+      <c r="A35" s="56">
         <v>8</v>
       </c>
       <c r="B35" s="5"/>
@@ -8531,15 +10147,15 @@
         <v>186</v>
       </c>
       <c r="J35" s="17"/>
-      <c r="K35" s="61">
+      <c r="K35" s="52">
         <v>5</v>
       </c>
-      <c r="L35" s="66">
+      <c r="L35" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A36" s="47"/>
+      <c r="A36" s="57"/>
       <c r="B36" s="5"/>
       <c r="C36" s="50"/>
       <c r="D36" s="5"/>
@@ -8553,8 +10169,8 @@
         <v>160</v>
       </c>
       <c r="J36" s="17"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="67"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="55"/>
     </row>
     <row r="37" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A37" s="13"/>
@@ -8564,11 +10180,11 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="68"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="29"/>
     </row>
     <row r="38" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A38" s="48">
+      <c r="A38" s="56">
         <v>9</v>
       </c>
       <c r="B38" s="5"/>
@@ -8588,15 +10204,15 @@
         <v>189</v>
       </c>
       <c r="J38" s="17"/>
-      <c r="K38" s="61">
+      <c r="K38" s="52">
         <v>0</v>
       </c>
-      <c r="L38" s="66">
+      <c r="L38" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A39" s="47"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="5"/>
       <c r="C39" s="50"/>
       <c r="D39" s="5"/>
@@ -8610,19 +10226,19 @@
         <v>48</v>
       </c>
       <c r="J39" s="17"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="67"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="55"/>
     </row>
     <row r="40" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="C40" s="13"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="68"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="29"/>
     </row>
     <row r="41" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A41" s="48">
+      <c r="A41" s="56">
         <v>10</v>
       </c>
       <c r="B41" s="5"/>
@@ -8642,15 +10258,15 @@
         <v>191</v>
       </c>
       <c r="J41" s="17"/>
-      <c r="K41" s="61">
+      <c r="K41" s="52">
         <v>0</v>
       </c>
-      <c r="L41" s="66">
+      <c r="L41" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A42" s="47"/>
+      <c r="A42" s="57"/>
       <c r="B42" s="5"/>
       <c r="C42" s="50"/>
       <c r="D42" s="5"/>
@@ -8664,8 +10280,8 @@
         <v>38</v>
       </c>
       <c r="J42" s="17"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="67"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="55"/>
     </row>
     <row r="43" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A43" s="5"/>
@@ -8677,11 +10293,11 @@
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="68"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="29"/>
     </row>
     <row r="44" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A44" s="48">
+      <c r="A44" s="56">
         <v>11</v>
       </c>
       <c r="B44" s="5"/>
@@ -8701,15 +10317,15 @@
         <v>193</v>
       </c>
       <c r="J44" s="17"/>
-      <c r="K44" s="61">
+      <c r="K44" s="52">
         <v>5</v>
       </c>
-      <c r="L44" s="66">
+      <c r="L44" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A45" s="47"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="5"/>
       <c r="C45" s="50"/>
       <c r="D45" s="5"/>
@@ -8723,18 +10339,18 @@
         <v>170</v>
       </c>
       <c r="J45" s="17"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="67"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="55"/>
     </row>
     <row r="46" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="68"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A47" s="48">
+      <c r="A47" s="56">
         <v>12</v>
       </c>
       <c r="B47" s="5"/>
@@ -8754,15 +10370,15 @@
         <v>195</v>
       </c>
       <c r="J47" s="17"/>
-      <c r="K47" s="61">
+      <c r="K47" s="52">
         <v>0</v>
       </c>
-      <c r="L47" s="66">
+      <c r="L47" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A48" s="47"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="5"/>
       <c r="C48" s="50"/>
       <c r="D48" s="5"/>
@@ -8776,8 +10392,8 @@
         <v>197</v>
       </c>
       <c r="J48" s="17"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="67"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="55"/>
     </row>
     <row r="49" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A49" s="13"/>
@@ -8788,11 +10404,11 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="68"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="29"/>
     </row>
     <row r="50" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A50" s="48">
+      <c r="A50" s="56">
         <v>13</v>
       </c>
       <c r="B50" s="5"/>
@@ -8812,15 +10428,15 @@
         <v>199</v>
       </c>
       <c r="J50" s="17"/>
-      <c r="K50" s="64">
+      <c r="K50" s="59">
         <v>5</v>
       </c>
-      <c r="L50" s="69">
+      <c r="L50" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A51" s="47"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="5"/>
       <c r="C51" s="50"/>
       <c r="D51" s="5"/>
@@ -8834,18 +10450,18 @@
         <v>39</v>
       </c>
       <c r="J51" s="17"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="70"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="62"/>
     </row>
     <row r="52" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="68"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29"/>
     </row>
     <row r="53" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A53" s="48">
+      <c r="A53" s="56">
         <v>14</v>
       </c>
       <c r="B53" s="5"/>
@@ -8865,15 +10481,15 @@
         <v>201</v>
       </c>
       <c r="J53" s="17"/>
-      <c r="K53" s="61">
+      <c r="K53" s="52">
         <v>5</v>
       </c>
-      <c r="L53" s="66">
+      <c r="L53" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A54" s="47"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="5"/>
       <c r="C54" s="50"/>
       <c r="D54" s="5"/>
@@ -8887,8 +10503,8 @@
         <v>67</v>
       </c>
       <c r="J54" s="17"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="67"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="55"/>
     </row>
     <row r="55" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A55" s="5"/>
@@ -8901,11 +10517,11 @@
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="68"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="29"/>
     </row>
     <row r="56" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A56" s="48">
+      <c r="A56" s="56">
         <v>15</v>
       </c>
       <c r="B56" s="5"/>
@@ -8925,15 +10541,15 @@
         <v>203</v>
       </c>
       <c r="J56" s="17"/>
-      <c r="K56" s="61">
+      <c r="K56" s="52">
         <v>1</v>
       </c>
-      <c r="L56" s="66">
+      <c r="L56" s="54">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A57" s="47"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="5"/>
       <c r="C57" s="50"/>
       <c r="D57" s="5"/>
@@ -8947,8 +10563,8 @@
         <v>204</v>
       </c>
       <c r="J57" s="17"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="67"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="55"/>
     </row>
     <row r="58" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A58" s="13"/>
@@ -8959,11 +10575,11 @@
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
-      <c r="K58" s="63"/>
-      <c r="L58" s="68"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="29"/>
     </row>
     <row r="59" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A59" s="48">
+      <c r="A59" s="56">
         <v>16</v>
       </c>
       <c r="B59" s="5"/>
@@ -8982,15 +10598,15 @@
       <c r="I59" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="K59" s="61">
+      <c r="K59" s="52">
         <v>5</v>
       </c>
-      <c r="L59" s="66">
+      <c r="L59" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A60" s="47"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="5"/>
       <c r="C60" s="50"/>
       <c r="D60" s="5"/>
@@ -9003,8 +10619,8 @@
       <c r="I60" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K60" s="62"/>
-      <c r="L60" s="67"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="55"/>
     </row>
     <row r="61" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A61" s="13"/>
@@ -9015,11 +10631,11 @@
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="68"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="29"/>
     </row>
     <row r="62" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A62" s="48">
+      <c r="A62" s="56">
         <v>17</v>
       </c>
       <c r="B62" s="5"/>
@@ -9039,15 +10655,15 @@
         <v>209</v>
       </c>
       <c r="J62" s="17"/>
-      <c r="K62" s="61">
+      <c r="K62" s="52">
         <v>0</v>
       </c>
-      <c r="L62" s="66">
+      <c r="L62" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A63" s="47"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="5"/>
       <c r="C63" s="50"/>
       <c r="D63" s="5"/>
@@ -9061,18 +10677,18 @@
         <v>44</v>
       </c>
       <c r="J63" s="17"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="67"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="55"/>
     </row>
     <row r="64" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="68"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="29"/>
     </row>
     <row r="65" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A65" s="48">
+      <c r="A65" s="56">
         <v>18</v>
       </c>
       <c r="B65" s="5"/>
@@ -9092,11 +10708,15 @@
         <v>211</v>
       </c>
       <c r="J65" s="17"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="66"/>
+      <c r="K65" s="52">
+        <v>5</v>
+      </c>
+      <c r="L65" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A66" s="47"/>
+      <c r="A66" s="57"/>
       <c r="B66" s="5"/>
       <c r="C66" s="50"/>
       <c r="D66" s="5"/>
@@ -9110,8 +10730,8 @@
         <v>44</v>
       </c>
       <c r="J66" s="17"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="67"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="55"/>
     </row>
     <row r="67" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A67" s="13"/>
@@ -9121,11 +10741,11 @@
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="68"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
     </row>
     <row r="68" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A68" s="48">
+      <c r="A68" s="56">
         <v>19</v>
       </c>
       <c r="B68" s="5"/>
@@ -9145,11 +10765,15 @@
         <v>213</v>
       </c>
       <c r="J68" s="17"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="66"/>
+      <c r="K68" s="52">
+        <v>2</v>
+      </c>
+      <c r="L68" s="54">
+        <v>3</v>
+      </c>
     </row>
     <row r="69" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A69" s="47"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="5"/>
       <c r="C69" s="50"/>
       <c r="D69" s="5"/>
@@ -9163,19 +10787,19 @@
         <v>108</v>
       </c>
       <c r="J69" s="17"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="67"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="55"/>
     </row>
     <row r="70" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="C70" s="13"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="68"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
     </row>
     <row r="71" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A71" s="48">
+      <c r="A71" s="56">
         <v>20</v>
       </c>
       <c r="B71" s="5"/>
@@ -9195,11 +10819,15 @@
         <v>215</v>
       </c>
       <c r="J71" s="17"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="66"/>
+      <c r="K71" s="52">
+        <v>0</v>
+      </c>
+      <c r="L71" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A72" s="47"/>
+      <c r="A72" s="57"/>
       <c r="B72" s="5"/>
       <c r="C72" s="50"/>
       <c r="D72" s="5"/>
@@ -9213,8 +10841,8 @@
         <v>64</v>
       </c>
       <c r="J72" s="17"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="67"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="55"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="21" t="s">
@@ -9273,82 +10901,82 @@
       <c r="E79" s="23"/>
     </row>
     <row r="82" spans="1:12" ht="5.0999999999999996" customHeight="1">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="29"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="32"/>
     </row>
     <row r="83" spans="1:12" ht="15" customHeight="1">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="32"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="35"/>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="32"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="35"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="32"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="35"/>
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="35"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="38"/>
     </row>
     <row r="87" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A87" s="3"/>
@@ -9395,37 +11023,37 @@
       <c r="L89" s="5"/>
     </row>
     <row r="90" spans="1:12" ht="9" customHeight="1">
-      <c r="A90" s="36"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="36"/>
-      <c r="E90" s="36"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="36"/>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
     </row>
     <row r="91" spans="1:12" s="1" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A91" s="37" t="s">
+      <c r="A91" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="42"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="40" t="s">
+      <c r="G91" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="H91" s="41"/>
-      <c r="I91" s="42"/>
-      <c r="K91" s="40" t="s">
+      <c r="H91" s="44"/>
+      <c r="I91" s="45"/>
+      <c r="K91" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="L91" s="43"/>
+      <c r="L91" s="46"/>
     </row>
     <row r="92" spans="1:12" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="93" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1">
@@ -9449,10 +11077,10 @@
         <v>12</v>
       </c>
       <c r="J93" s="7"/>
-      <c r="K93" s="44" t="s">
+      <c r="K93" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L93" s="45"/>
+      <c r="L93" s="48"/>
     </row>
     <row r="94" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A94" s="13"/>
@@ -9465,7 +11093,7 @@
       <c r="I94" s="14"/>
     </row>
     <row r="95" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B95" s="5"/>
@@ -9485,11 +11113,15 @@
         <v>218</v>
       </c>
       <c r="J95" s="17"/>
-      <c r="K95" s="52"/>
-      <c r="L95" s="54"/>
+      <c r="K95" s="52">
+        <v>5</v>
+      </c>
+      <c r="L95" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A96" s="47"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="5"/>
       <c r="C96" s="50"/>
       <c r="D96" s="5"/>
@@ -9510,9 +11142,11 @@
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="16"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="29"/>
     </row>
     <row r="98" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="58" t="s">
         <v>20</v>
       </c>
       <c r="B98" s="5"/>
@@ -9532,11 +11166,15 @@
         <v>220</v>
       </c>
       <c r="J98" s="17"/>
-      <c r="K98" s="52"/>
-      <c r="L98" s="54"/>
+      <c r="K98" s="52">
+        <v>0</v>
+      </c>
+      <c r="L98" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="99" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A99" s="47"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="5"/>
       <c r="C99" s="50"/>
       <c r="D99" s="5"/>
@@ -9561,9 +11199,11 @@
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
       <c r="I100" s="16"/>
+      <c r="K100" s="28"/>
+      <c r="L100" s="29"/>
     </row>
     <row r="101" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B101" s="5"/>
@@ -9583,11 +11223,15 @@
         <v>224</v>
       </c>
       <c r="J101" s="17"/>
-      <c r="K101" s="52"/>
-      <c r="L101" s="54"/>
+      <c r="K101" s="52">
+        <v>5</v>
+      </c>
+      <c r="L101" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A102" s="47"/>
+      <c r="A102" s="57"/>
       <c r="B102" s="5"/>
       <c r="C102" s="50"/>
       <c r="D102" s="5"/>
@@ -9609,9 +11253,11 @@
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
+      <c r="K103" s="28"/>
+      <c r="L103" s="29"/>
     </row>
     <row r="104" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A104" s="46" t="s">
+      <c r="A104" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B104" s="5"/>
@@ -9631,11 +11277,15 @@
         <v>227</v>
       </c>
       <c r="J104" s="17"/>
-      <c r="K104" s="52"/>
-      <c r="L104" s="54"/>
+      <c r="K104" s="52">
+        <v>1</v>
+      </c>
+      <c r="L104" s="54">
+        <v>4</v>
+      </c>
     </row>
     <row r="105" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A105" s="47"/>
+      <c r="A105" s="57"/>
       <c r="B105" s="5"/>
       <c r="C105" s="50"/>
       <c r="D105" s="5"/>
@@ -9661,9 +11311,11 @@
       <c r="H106" s="16"/>
       <c r="I106" s="16"/>
       <c r="J106" s="17"/>
+      <c r="K106" s="28"/>
+      <c r="L106" s="29"/>
     </row>
     <row r="107" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B107" s="5"/>
@@ -9683,11 +11335,15 @@
         <v>230</v>
       </c>
       <c r="J107" s="17"/>
-      <c r="K107" s="52"/>
-      <c r="L107" s="54"/>
+      <c r="K107" s="52">
+        <v>0</v>
+      </c>
+      <c r="L107" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A108" s="47"/>
+      <c r="A108" s="57"/>
       <c r="B108" s="5"/>
       <c r="C108" s="50"/>
       <c r="D108" s="5"/>
@@ -9713,9 +11369,11 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="16"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="29"/>
     </row>
     <row r="110" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A110" s="46" t="s">
+      <c r="A110" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B110" s="5"/>
@@ -9734,11 +11392,15 @@
       <c r="I110" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="K110" s="52"/>
-      <c r="L110" s="54"/>
+      <c r="K110" s="52">
+        <v>5</v>
+      </c>
+      <c r="L110" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A111" s="47"/>
+      <c r="A111" s="57"/>
       <c r="B111" s="5"/>
       <c r="C111" s="50"/>
       <c r="D111" s="5"/>
@@ -9763,9 +11425,11 @@
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
       <c r="I112" s="18"/>
+      <c r="K112" s="28"/>
+      <c r="L112" s="29"/>
     </row>
     <row r="113" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A113" s="48">
+      <c r="A113" s="56">
         <v>7</v>
       </c>
       <c r="B113" s="5"/>
@@ -9785,11 +11449,15 @@
         <v>235</v>
       </c>
       <c r="J113" s="17"/>
-      <c r="K113" s="52"/>
-      <c r="L113" s="54"/>
+      <c r="K113" s="52">
+        <v>0</v>
+      </c>
+      <c r="L113" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="114" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A114" s="47"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="5"/>
       <c r="C114" s="50"/>
       <c r="D114" s="5"/>
@@ -9810,9 +11478,11 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
       <c r="I115" s="16"/>
+      <c r="K115" s="28"/>
+      <c r="L115" s="29"/>
     </row>
     <row r="116" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A116" s="48">
+      <c r="A116" s="56">
         <v>8</v>
       </c>
       <c r="B116" s="5"/>
@@ -9832,11 +11502,15 @@
         <v>238</v>
       </c>
       <c r="J116" s="17"/>
-      <c r="K116" s="52"/>
-      <c r="L116" s="54"/>
+      <c r="K116" s="52">
+        <v>5</v>
+      </c>
+      <c r="L116" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A117" s="47"/>
+      <c r="A117" s="57"/>
       <c r="B117" s="5"/>
       <c r="C117" s="50"/>
       <c r="D117" s="5"/>
@@ -9861,9 +11535,11 @@
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
       <c r="I118" s="16"/>
+      <c r="K118" s="28"/>
+      <c r="L118" s="29"/>
     </row>
     <row r="119" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A119" s="48">
+      <c r="A119" s="56">
         <v>9</v>
       </c>
       <c r="B119" s="5"/>
@@ -9883,11 +11559,15 @@
         <v>241</v>
       </c>
       <c r="J119" s="17"/>
-      <c r="K119" s="52"/>
-      <c r="L119" s="54"/>
+      <c r="K119" s="52">
+        <v>5</v>
+      </c>
+      <c r="L119" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A120" s="47"/>
+      <c r="A120" s="57"/>
       <c r="B120" s="5"/>
       <c r="C120" s="50"/>
       <c r="D120" s="5"/>
@@ -9909,9 +11589,11 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
       <c r="I121" s="16"/>
+      <c r="K121" s="28"/>
+      <c r="L121" s="29"/>
     </row>
     <row r="122" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A122" s="48">
+      <c r="A122" s="56">
         <v>10</v>
       </c>
       <c r="B122" s="5"/>
@@ -9931,11 +11613,15 @@
         <v>243</v>
       </c>
       <c r="J122" s="17"/>
-      <c r="K122" s="52"/>
-      <c r="L122" s="54"/>
+      <c r="K122" s="52">
+        <v>5</v>
+      </c>
+      <c r="L122" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A123" s="47"/>
+      <c r="A123" s="57"/>
       <c r="B123" s="5"/>
       <c r="C123" s="50"/>
       <c r="D123" s="5"/>
@@ -9962,9 +11648,11 @@
       <c r="H124" s="16"/>
       <c r="I124" s="16"/>
       <c r="J124" s="17"/>
+      <c r="K124" s="28"/>
+      <c r="L124" s="29"/>
     </row>
     <row r="125" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A125" s="48">
+      <c r="A125" s="56">
         <v>11</v>
       </c>
       <c r="B125" s="5"/>
@@ -9984,11 +11672,15 @@
         <v>245</v>
       </c>
       <c r="J125" s="17"/>
-      <c r="K125" s="52"/>
-      <c r="L125" s="54"/>
+      <c r="K125" s="52">
+        <v>5</v>
+      </c>
+      <c r="L125" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A126" s="47"/>
+      <c r="A126" s="57"/>
       <c r="B126" s="5"/>
       <c r="C126" s="50"/>
       <c r="D126" s="5"/>
@@ -10009,9 +11701,11 @@
       <c r="G127" s="16"/>
       <c r="H127" s="16"/>
       <c r="I127" s="16"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="29"/>
     </row>
     <row r="128" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A128" s="48">
+      <c r="A128" s="56">
         <v>12</v>
       </c>
       <c r="B128" s="5"/>
@@ -10031,11 +11725,15 @@
         <v>247</v>
       </c>
       <c r="J128" s="17"/>
-      <c r="K128" s="52"/>
-      <c r="L128" s="54"/>
+      <c r="K128" s="52">
+        <v>3</v>
+      </c>
+      <c r="L128" s="54">
+        <v>2</v>
+      </c>
     </row>
     <row r="129" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A129" s="47"/>
+      <c r="A129" s="57"/>
       <c r="B129" s="5"/>
       <c r="C129" s="50"/>
       <c r="D129" s="5"/>
@@ -10061,9 +11759,11 @@
       <c r="G130" s="16"/>
       <c r="H130" s="16"/>
       <c r="I130" s="16"/>
+      <c r="K130" s="28"/>
+      <c r="L130" s="29"/>
     </row>
     <row r="131" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A131" s="48">
+      <c r="A131" s="56">
         <v>13</v>
       </c>
       <c r="B131" s="5"/>
@@ -10083,11 +11783,15 @@
         <v>249</v>
       </c>
       <c r="J131" s="17"/>
-      <c r="K131" s="52"/>
-      <c r="L131" s="54"/>
+      <c r="K131" s="52">
+        <v>5</v>
+      </c>
+      <c r="L131" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A132" s="47"/>
+      <c r="A132" s="57"/>
       <c r="B132" s="5"/>
       <c r="C132" s="50"/>
       <c r="D132" s="5"/>
@@ -10108,9 +11812,11 @@
       <c r="G133" s="16"/>
       <c r="H133" s="16"/>
       <c r="I133" s="16"/>
+      <c r="K133" s="28"/>
+      <c r="L133" s="29"/>
     </row>
     <row r="134" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A134" s="48">
+      <c r="A134" s="56">
         <v>14</v>
       </c>
       <c r="B134" s="5"/>
@@ -10130,11 +11836,15 @@
         <v>251</v>
       </c>
       <c r="J134" s="17"/>
-      <c r="K134" s="52"/>
-      <c r="L134" s="54"/>
+      <c r="K134" s="52">
+        <v>0</v>
+      </c>
+      <c r="L134" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="135" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A135" s="47"/>
+      <c r="A135" s="57"/>
       <c r="B135" s="5"/>
       <c r="C135" s="50"/>
       <c r="D135" s="5"/>
@@ -10162,9 +11872,11 @@
       <c r="H136" s="16"/>
       <c r="I136" s="16"/>
       <c r="J136" s="17"/>
+      <c r="K136" s="28"/>
+      <c r="L136" s="29"/>
     </row>
     <row r="137" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A137" s="48">
+      <c r="A137" s="56">
         <v>15</v>
       </c>
       <c r="B137" s="5"/>
@@ -10184,11 +11896,15 @@
         <v>253</v>
       </c>
       <c r="J137" s="17"/>
-      <c r="K137" s="52"/>
-      <c r="L137" s="54"/>
+      <c r="K137" s="52">
+        <v>1</v>
+      </c>
+      <c r="L137" s="54">
+        <v>4</v>
+      </c>
     </row>
     <row r="138" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A138" s="47"/>
+      <c r="A138" s="57"/>
       <c r="B138" s="5"/>
       <c r="C138" s="50"/>
       <c r="D138" s="5"/>
@@ -10214,9 +11930,11 @@
       <c r="G139" s="16"/>
       <c r="H139" s="16"/>
       <c r="I139" s="16"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="29"/>
     </row>
     <row r="140" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A140" s="48">
+      <c r="A140" s="56">
         <v>16</v>
       </c>
       <c r="B140" s="5"/>
@@ -10235,11 +11953,15 @@
       <c r="I140" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="K140" s="52"/>
-      <c r="L140" s="54"/>
+      <c r="K140" s="52">
+        <v>5</v>
+      </c>
+      <c r="L140" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A141" s="47"/>
+      <c r="A141" s="57"/>
       <c r="B141" s="5"/>
       <c r="C141" s="50"/>
       <c r="D141" s="5"/>
@@ -10264,9 +11986,11 @@
       <c r="G142" s="18"/>
       <c r="H142" s="18"/>
       <c r="I142" s="18"/>
+      <c r="K142" s="28"/>
+      <c r="L142" s="29"/>
     </row>
     <row r="143" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A143" s="48">
+      <c r="A143" s="56">
         <v>17</v>
       </c>
       <c r="B143" s="5"/>
@@ -10286,11 +12010,15 @@
         <v>257</v>
       </c>
       <c r="J143" s="17"/>
-      <c r="K143" s="52"/>
-      <c r="L143" s="54"/>
+      <c r="K143" s="52">
+        <v>5</v>
+      </c>
+      <c r="L143" s="54">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A144" s="47"/>
+      <c r="A144" s="57"/>
       <c r="B144" s="5"/>
       <c r="C144" s="50"/>
       <c r="D144" s="5"/>
@@ -10311,9 +12039,11 @@
       <c r="G145" s="16"/>
       <c r="H145" s="16"/>
       <c r="I145" s="16"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="29"/>
     </row>
     <row r="146" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A146" s="48">
+      <c r="A146" s="56">
         <v>18</v>
       </c>
       <c r="B146" s="5"/>
@@ -10333,11 +12063,15 @@
         <v>259</v>
       </c>
       <c r="J146" s="17"/>
-      <c r="K146" s="52"/>
-      <c r="L146" s="54"/>
+      <c r="K146" s="52">
+        <v>0</v>
+      </c>
+      <c r="L146" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="147" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A147" s="47"/>
+      <c r="A147" s="57"/>
       <c r="B147" s="5"/>
       <c r="C147" s="50"/>
       <c r="D147" s="5"/>
@@ -10362,9 +12096,11 @@
       <c r="G148" s="16"/>
       <c r="H148" s="16"/>
       <c r="I148" s="16"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="29"/>
     </row>
     <row r="149" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A149" s="48">
+      <c r="A149" s="56">
         <v>19</v>
       </c>
       <c r="B149" s="5"/>
@@ -10384,11 +12120,15 @@
         <v>262</v>
       </c>
       <c r="J149" s="17"/>
-      <c r="K149" s="52"/>
-      <c r="L149" s="54"/>
+      <c r="K149" s="52">
+        <v>0</v>
+      </c>
+      <c r="L149" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="150" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A150" s="47"/>
+      <c r="A150" s="57"/>
       <c r="B150" s="5"/>
       <c r="C150" s="50"/>
       <c r="D150" s="5"/>
@@ -10410,9 +12150,11 @@
       <c r="G151" s="16"/>
       <c r="H151" s="16"/>
       <c r="I151" s="16"/>
+      <c r="K151" s="28"/>
+      <c r="L151" s="29"/>
     </row>
     <row r="152" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A152" s="48">
+      <c r="A152" s="56">
         <v>20</v>
       </c>
       <c r="B152" s="5"/>
@@ -10432,11 +12174,15 @@
         <v>264</v>
       </c>
       <c r="J152" s="17"/>
-      <c r="K152" s="52"/>
-      <c r="L152" s="54"/>
+      <c r="K152" s="52">
+        <v>0</v>
+      </c>
+      <c r="L152" s="54">
+        <v>5</v>
+      </c>
     </row>
     <row r="153" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A153" s="47"/>
+      <c r="A153" s="57"/>
       <c r="B153" s="5"/>
       <c r="C153" s="50"/>
       <c r="D153" s="5"/>
@@ -10461,9 +12207,11 @@
       <c r="G154" s="16"/>
       <c r="H154" s="16"/>
       <c r="I154" s="16"/>
+      <c r="K154" s="28"/>
+      <c r="L154" s="29"/>
     </row>
     <row r="155" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A155" s="48">
+      <c r="A155" s="56">
         <v>21</v>
       </c>
       <c r="B155" s="5"/>
@@ -10487,7 +12235,7 @@
       <c r="L155" s="54"/>
     </row>
     <row r="156" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A156" s="47"/>
+      <c r="A156" s="57"/>
       <c r="B156" s="5"/>
       <c r="C156" s="50"/>
       <c r="D156" s="5"/>
@@ -10510,7 +12258,6 @@
       <c r="H157" s="16"/>
       <c r="I157" s="16"/>
     </row>
-    <row r="158" spans="1:12" ht="15"/>
     <row r="159" spans="1:12">
       <c r="A159" s="21" t="s">
         <v>93</v>
@@ -10567,85 +12314,83 @@
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
     </row>
-    <row r="165" spans="1:12" ht="15"/>
-    <row r="166" spans="1:12" ht="15"/>
     <row r="167" spans="1:12" ht="5.0999999999999996" customHeight="1">
-      <c r="A167" s="27"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="28"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
-      <c r="L167" s="29"/>
+      <c r="A167" s="30"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="31"/>
+      <c r="H167" s="31"/>
+      <c r="I167" s="31"/>
+      <c r="J167" s="31"/>
+      <c r="K167" s="31"/>
+      <c r="L167" s="32"/>
     </row>
     <row r="168" spans="1:12" ht="15" customHeight="1">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="31"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="G168" s="31"/>
-      <c r="H168" s="31"/>
-      <c r="I168" s="31"/>
-      <c r="J168" s="31"/>
-      <c r="K168" s="31"/>
-      <c r="L168" s="32"/>
+      <c r="B168" s="34"/>
+      <c r="C168" s="34"/>
+      <c r="D168" s="34"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="34"/>
+      <c r="G168" s="34"/>
+      <c r="H168" s="34"/>
+      <c r="I168" s="34"/>
+      <c r="J168" s="34"/>
+      <c r="K168" s="34"/>
+      <c r="L168" s="35"/>
     </row>
     <row r="169" spans="1:12" ht="15" customHeight="1">
-      <c r="A169" s="30" t="s">
+      <c r="A169" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="31"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="31"/>
-      <c r="H169" s="31"/>
-      <c r="I169" s="31"/>
-      <c r="J169" s="31"/>
-      <c r="K169" s="31"/>
-      <c r="L169" s="32"/>
+      <c r="B169" s="34"/>
+      <c r="C169" s="34"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="34"/>
+      <c r="H169" s="34"/>
+      <c r="I169" s="34"/>
+      <c r="J169" s="34"/>
+      <c r="K169" s="34"/>
+      <c r="L169" s="35"/>
     </row>
     <row r="170" spans="1:12" ht="15" customHeight="1">
-      <c r="A170" s="30" t="s">
+      <c r="A170" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B170" s="31"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="31"/>
-      <c r="H170" s="31"/>
-      <c r="I170" s="31"/>
-      <c r="J170" s="31"/>
-      <c r="K170" s="31"/>
-      <c r="L170" s="32"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="34"/>
+      <c r="D170" s="34"/>
+      <c r="E170" s="34"/>
+      <c r="F170" s="34"/>
+      <c r="G170" s="34"/>
+      <c r="H170" s="34"/>
+      <c r="I170" s="34"/>
+      <c r="J170" s="34"/>
+      <c r="K170" s="34"/>
+      <c r="L170" s="35"/>
     </row>
     <row r="171" spans="1:12" ht="15" customHeight="1">
-      <c r="A171" s="33" t="s">
+      <c r="A171" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="34"/>
-      <c r="C171" s="34"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="34"/>
-      <c r="F171" s="34"/>
-      <c r="G171" s="34"/>
-      <c r="H171" s="34"/>
-      <c r="I171" s="34"/>
-      <c r="J171" s="34"/>
-      <c r="K171" s="34"/>
-      <c r="L171" s="35"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="37"/>
+      <c r="D171" s="37"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
+      <c r="I171" s="37"/>
+      <c r="J171" s="37"/>
+      <c r="K171" s="37"/>
+      <c r="L171" s="38"/>
     </row>
     <row r="172" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A172" s="3"/>
@@ -10692,37 +12437,37 @@
       <c r="L174" s="5"/>
     </row>
     <row r="175" spans="1:12" ht="9" customHeight="1">
-      <c r="A175" s="36"/>
-      <c r="B175" s="36"/>
-      <c r="C175" s="36"/>
-      <c r="D175" s="36"/>
-      <c r="E175" s="36"/>
-      <c r="F175" s="36"/>
-      <c r="G175" s="36"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="36"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="36"/>
-      <c r="L175" s="36"/>
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="39"/>
+      <c r="D175" s="39"/>
+      <c r="E175" s="39"/>
+      <c r="F175" s="39"/>
+      <c r="G175" s="39"/>
+      <c r="H175" s="39"/>
+      <c r="I175" s="39"/>
+      <c r="J175" s="39"/>
+      <c r="K175" s="39"/>
+      <c r="L175" s="39"/>
     </row>
     <row r="176" spans="1:12" s="1" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A176" s="37" t="s">
+      <c r="A176" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="B176" s="38"/>
-      <c r="C176" s="38"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="39"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="41"/>
+      <c r="E176" s="42"/>
       <c r="F176" s="7"/>
-      <c r="G176" s="40" t="s">
+      <c r="G176" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="H176" s="41"/>
-      <c r="I176" s="42"/>
-      <c r="K176" s="40" t="s">
+      <c r="H176" s="44"/>
+      <c r="I176" s="45"/>
+      <c r="K176" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="L176" s="43"/>
+      <c r="L176" s="46"/>
     </row>
     <row r="177" spans="1:12" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="178" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1">
@@ -10746,10 +12491,10 @@
         <v>12</v>
       </c>
       <c r="J178" s="7"/>
-      <c r="K178" s="44" t="s">
+      <c r="K178" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L178" s="45"/>
+      <c r="L178" s="48"/>
     </row>
     <row r="179" spans="1:12" ht="5.0999999999999996" customHeight="1">
       <c r="A179" s="13"/>
@@ -10762,7 +12507,7 @@
       <c r="I179" s="14"/>
     </row>
     <row r="180" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A180" s="46" t="s">
+      <c r="A180" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B180" s="5"/>
@@ -10786,7 +12531,7 @@
       <c r="L180" s="54"/>
     </row>
     <row r="181" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A181" s="47"/>
+      <c r="A181" s="57"/>
       <c r="B181" s="5"/>
       <c r="C181" s="50"/>
       <c r="D181" s="5"/>
@@ -10807,9 +12552,11 @@
       <c r="G182" s="16"/>
       <c r="H182" s="16"/>
       <c r="I182" s="16"/>
+      <c r="K182" s="28"/>
+      <c r="L182" s="29"/>
     </row>
     <row r="183" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A183" s="46" t="s">
+      <c r="A183" s="58" t="s">
         <v>20</v>
       </c>
       <c r="B183" s="5"/>
@@ -10833,7 +12580,7 @@
       <c r="L183" s="54"/>
     </row>
     <row r="184" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A184" s="47"/>
+      <c r="A184" s="57"/>
       <c r="B184" s="5"/>
       <c r="C184" s="50"/>
       <c r="D184" s="5"/>
@@ -10858,9 +12605,11 @@
       <c r="G185" s="16"/>
       <c r="H185" s="16"/>
       <c r="I185" s="16"/>
+      <c r="K185" s="28"/>
+      <c r="L185" s="29"/>
     </row>
     <row r="186" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A186" s="46" t="s">
+      <c r="A186" s="58" t="s">
         <v>25</v>
       </c>
       <c r="B186" s="5"/>
@@ -10876,7 +12625,7 @@
         <v>269</v>
       </c>
       <c r="H186"/>
-      <c r="I186" s="56" t="s">
+      <c r="I186" s="65" t="s">
         <v>270</v>
       </c>
       <c r="J186" s="17"/>
@@ -10884,7 +12633,7 @@
       <c r="L186" s="54"/>
     </row>
     <row r="187" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A187" s="47"/>
+      <c r="A187" s="57"/>
       <c r="B187" s="5"/>
       <c r="C187" s="50"/>
       <c r="D187" s="5"/>
@@ -10894,7 +12643,7 @@
         <v>72</v>
       </c>
       <c r="H187"/>
-      <c r="I187" s="57"/>
+      <c r="I187" s="66"/>
       <c r="J187" s="17"/>
       <c r="K187" s="53"/>
       <c r="L187" s="55"/>
@@ -10904,9 +12653,11 @@
       <c r="G188" s="16"/>
       <c r="H188" s="16"/>
       <c r="I188" s="16"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="29"/>
     </row>
     <row r="189" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A189" s="46" t="s">
+      <c r="A189" s="58" t="s">
         <v>30</v>
       </c>
       <c r="B189" s="5"/>
@@ -10930,7 +12681,7 @@
       <c r="L189" s="54"/>
     </row>
     <row r="190" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A190" s="47"/>
+      <c r="A190" s="57"/>
       <c r="B190" s="5"/>
       <c r="C190" s="50"/>
       <c r="D190" s="5"/>
@@ -10956,9 +12707,11 @@
       <c r="H191" s="16"/>
       <c r="I191" s="16"/>
       <c r="J191" s="17"/>
+      <c r="K191" s="28"/>
+      <c r="L191" s="29"/>
     </row>
     <row r="192" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A192" s="46" t="s">
+      <c r="A192" s="58" t="s">
         <v>35</v>
       </c>
       <c r="B192" s="5"/>
@@ -10982,7 +12735,7 @@
       <c r="L192" s="54"/>
     </row>
     <row r="193" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A193" s="47"/>
+      <c r="A193" s="57"/>
       <c r="B193" s="5"/>
       <c r="C193" s="50"/>
       <c r="D193" s="5"/>
@@ -11008,9 +12761,11 @@
       <c r="G194" s="16"/>
       <c r="H194" s="16"/>
       <c r="I194" s="16"/>
+      <c r="K194" s="28"/>
+      <c r="L194" s="29"/>
     </row>
     <row r="195" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A195" s="46" t="s">
+      <c r="A195" s="58" t="s">
         <v>40</v>
       </c>
       <c r="B195" s="5"/>
@@ -11022,7 +12777,7 @@
         <v>49</v>
       </c>
       <c r="F195"/>
-      <c r="G195" s="56" t="s">
+      <c r="G195" s="65" t="s">
         <v>270</v>
       </c>
       <c r="H195"/>
@@ -11033,13 +12788,13 @@
       <c r="L195" s="54"/>
     </row>
     <row r="196" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A196" s="47"/>
+      <c r="A196" s="57"/>
       <c r="B196" s="5"/>
       <c r="C196" s="50"/>
       <c r="D196" s="5"/>
       <c r="E196" s="51"/>
       <c r="F196"/>
-      <c r="G196" s="57"/>
+      <c r="G196" s="66"/>
       <c r="H196"/>
       <c r="I196" s="15" t="s">
         <v>68</v>
@@ -11056,9 +12811,11 @@
       <c r="G197" s="18"/>
       <c r="H197" s="18"/>
       <c r="I197" s="18"/>
+      <c r="K197" s="28"/>
+      <c r="L197" s="29"/>
     </row>
     <row r="198" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A198" s="48">
+      <c r="A198" s="56">
         <v>7</v>
       </c>
       <c r="B198" s="5"/>
@@ -11082,7 +12839,7 @@
       <c r="L198" s="54"/>
     </row>
     <row r="199" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A199" s="47"/>
+      <c r="A199" s="57"/>
       <c r="B199" s="5"/>
       <c r="C199" s="50"/>
       <c r="D199" s="5"/>
@@ -11103,9 +12860,11 @@
       <c r="G200" s="16"/>
       <c r="H200" s="16"/>
       <c r="I200" s="16"/>
+      <c r="K200" s="28"/>
+      <c r="L200" s="29"/>
     </row>
     <row r="201" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A201" s="48">
+      <c r="A201" s="56">
         <v>8</v>
       </c>
       <c r="B201" s="5"/>
@@ -11129,7 +12888,7 @@
       <c r="L201" s="54"/>
     </row>
     <row r="202" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A202" s="47"/>
+      <c r="A202" s="57"/>
       <c r="B202" s="5"/>
       <c r="C202" s="50"/>
       <c r="D202" s="5"/>
@@ -11154,9 +12913,11 @@
       <c r="G203" s="16"/>
       <c r="H203" s="16"/>
       <c r="I203" s="16"/>
+      <c r="K203" s="28"/>
+      <c r="L203" s="29"/>
     </row>
     <row r="204" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A204" s="48">
+      <c r="A204" s="56">
         <v>9</v>
       </c>
       <c r="B204" s="5"/>
@@ -11180,7 +12941,7 @@
       <c r="L204" s="54"/>
     </row>
     <row r="205" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A205" s="47"/>
+      <c r="A205" s="57"/>
       <c r="B205" s="5"/>
       <c r="C205" s="50"/>
       <c r="D205" s="5"/>
@@ -11202,9 +12963,11 @@
       <c r="G206" s="16"/>
       <c r="H206" s="16"/>
       <c r="I206" s="16"/>
+      <c r="K206" s="28"/>
+      <c r="L206" s="29"/>
     </row>
     <row r="207" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A207" s="48">
+      <c r="A207" s="56">
         <v>10</v>
       </c>
       <c r="B207" s="5"/>
@@ -11228,7 +12991,7 @@
       <c r="L207" s="54"/>
     </row>
     <row r="208" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A208" s="47"/>
+      <c r="A208" s="57"/>
       <c r="B208" s="5"/>
       <c r="C208" s="50"/>
       <c r="D208" s="5"/>
@@ -11255,9 +13018,11 @@
       <c r="H209" s="16"/>
       <c r="I209" s="16"/>
       <c r="J209" s="17"/>
+      <c r="K209" s="28"/>
+      <c r="L209" s="29"/>
     </row>
     <row r="210" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A210" s="48">
+      <c r="A210" s="56">
         <v>11</v>
       </c>
       <c r="B210" s="5"/>
@@ -11281,7 +13046,7 @@
       <c r="L210" s="54"/>
     </row>
     <row r="211" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A211" s="47"/>
+      <c r="A211" s="57"/>
       <c r="B211" s="5"/>
       <c r="C211" s="50"/>
       <c r="D211" s="5"/>
@@ -11302,9 +13067,11 @@
       <c r="G212" s="16"/>
       <c r="H212" s="16"/>
       <c r="I212" s="16"/>
+      <c r="K212" s="28"/>
+      <c r="L212" s="29"/>
     </row>
     <row r="213" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A213" s="48">
+      <c r="A213" s="56">
         <v>12</v>
       </c>
       <c r="B213" s="5"/>
@@ -11328,7 +13095,7 @@
       <c r="L213" s="54"/>
     </row>
     <row r="214" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A214" s="47"/>
+      <c r="A214" s="57"/>
       <c r="B214" s="5"/>
       <c r="C214" s="50"/>
       <c r="D214" s="5"/>
@@ -11354,9 +13121,11 @@
       <c r="G215" s="16"/>
       <c r="H215" s="16"/>
       <c r="I215" s="16"/>
+      <c r="K215" s="28"/>
+      <c r="L215" s="29"/>
     </row>
     <row r="216" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A216" s="48">
+      <c r="A216" s="56">
         <v>13</v>
       </c>
       <c r="B216" s="5"/>
@@ -11368,8 +13137,8 @@
         <v>86</v>
       </c>
       <c r="F216"/>
-      <c r="G216" s="59" t="s">
-        <v>304</v>
+      <c r="G216" s="63" t="s">
+        <v>303</v>
       </c>
       <c r="H216"/>
       <c r="I216" s="15" t="s">
@@ -11380,13 +13149,13 @@
       <c r="L216" s="54"/>
     </row>
     <row r="217" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A217" s="47"/>
+      <c r="A217" s="57"/>
       <c r="B217" s="5"/>
       <c r="C217" s="50"/>
       <c r="D217" s="5"/>
       <c r="E217" s="51"/>
       <c r="F217"/>
-      <c r="G217" s="60"/>
+      <c r="G217" s="64"/>
       <c r="H217"/>
       <c r="I217" s="15" t="s">
         <v>28</v>
@@ -11399,9 +13168,11 @@
       <c r="G218" s="16"/>
       <c r="H218" s="16"/>
       <c r="I218" s="16"/>
+      <c r="K218" s="28"/>
+      <c r="L218" s="29"/>
     </row>
     <row r="219" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A219" s="48">
+      <c r="A219" s="56">
         <v>14</v>
       </c>
       <c r="B219" s="5"/>
@@ -11417,15 +13188,15 @@
         <v>291</v>
       </c>
       <c r="H219"/>
-      <c r="I219" s="59" t="s">
-        <v>305</v>
+      <c r="I219" s="63" t="s">
+        <v>304</v>
       </c>
       <c r="J219" s="17"/>
       <c r="K219" s="52"/>
       <c r="L219" s="54"/>
     </row>
     <row r="220" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A220" s="47"/>
+      <c r="A220" s="57"/>
       <c r="B220" s="5"/>
       <c r="C220" s="50"/>
       <c r="D220" s="5"/>
@@ -11435,7 +13206,7 @@
         <v>39</v>
       </c>
       <c r="H220"/>
-      <c r="I220" s="60"/>
+      <c r="I220" s="64"/>
       <c r="J220" s="17"/>
       <c r="K220" s="53"/>
       <c r="L220" s="55"/>
@@ -11451,9 +13222,11 @@
       <c r="H221" s="16"/>
       <c r="I221" s="16"/>
       <c r="J221" s="17"/>
+      <c r="K221" s="28"/>
+      <c r="L221" s="29"/>
     </row>
     <row r="222" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A222" s="48">
+      <c r="A222" s="56">
         <v>15</v>
       </c>
       <c r="B222" s="5"/>
@@ -11465,8 +13238,8 @@
         <v>99</v>
       </c>
       <c r="F222"/>
-      <c r="G222" s="59" t="s">
-        <v>306</v>
+      <c r="G222" s="63" t="s">
+        <v>305</v>
       </c>
       <c r="H222"/>
       <c r="I222" s="15" t="s">
@@ -11477,13 +13250,13 @@
       <c r="L222" s="54"/>
     </row>
     <row r="223" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A223" s="47"/>
+      <c r="A223" s="57"/>
       <c r="B223" s="5"/>
       <c r="C223" s="50"/>
       <c r="D223" s="5"/>
       <c r="E223" s="51"/>
       <c r="F223"/>
-      <c r="G223" s="60"/>
+      <c r="G223" s="64"/>
       <c r="H223"/>
       <c r="I223" s="15" t="s">
         <v>89</v>
@@ -11501,9 +13274,11 @@
       <c r="G224" s="16"/>
       <c r="H224" s="16"/>
       <c r="I224" s="16"/>
+      <c r="K224" s="28"/>
+      <c r="L224" s="29"/>
     </row>
     <row r="225" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A225" s="48">
+      <c r="A225" s="56">
         <v>16</v>
       </c>
       <c r="B225" s="5"/>
@@ -11515,8 +13290,8 @@
         <v>103</v>
       </c>
       <c r="F225"/>
-      <c r="G225" s="59" t="s">
-        <v>309</v>
+      <c r="G225" s="63" t="s">
+        <v>308</v>
       </c>
       <c r="H225"/>
       <c r="I225" s="15" t="s">
@@ -11526,13 +13301,13 @@
       <c r="L225" s="54"/>
     </row>
     <row r="226" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A226" s="47"/>
+      <c r="A226" s="57"/>
       <c r="B226" s="5"/>
       <c r="C226" s="50"/>
       <c r="D226" s="5"/>
       <c r="E226" s="51"/>
       <c r="F226"/>
-      <c r="G226" s="60"/>
+      <c r="G226" s="64"/>
       <c r="H226"/>
       <c r="I226" s="15" t="s">
         <v>299</v>
@@ -11549,9 +13324,11 @@
       <c r="G227" s="18"/>
       <c r="H227" s="18"/>
       <c r="I227" s="18"/>
+      <c r="K227" s="28"/>
+      <c r="L227" s="29"/>
     </row>
     <row r="228" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A228" s="48">
+      <c r="A228" s="56">
         <v>17</v>
       </c>
       <c r="B228" s="5"/>
@@ -11564,18 +13341,18 @@
       </c>
       <c r="F228"/>
       <c r="G228" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H228"/>
       <c r="I228" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J228" s="17"/>
       <c r="K228" s="52"/>
       <c r="L228" s="54"/>
     </row>
     <row r="229" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A229" s="47"/>
+      <c r="A229" s="57"/>
       <c r="B229" s="5"/>
       <c r="C229" s="50"/>
       <c r="D229" s="5"/>
@@ -11596,9 +13373,11 @@
       <c r="G230" s="16"/>
       <c r="H230" s="16"/>
       <c r="I230" s="16"/>
+      <c r="K230" s="28"/>
+      <c r="L230" s="29"/>
     </row>
     <row r="231" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A231" s="48">
+      <c r="A231" s="56">
         <v>18</v>
       </c>
       <c r="B231" s="5"/>
@@ -11611,18 +13390,18 @@
       </c>
       <c r="F231"/>
       <c r="G231" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H231"/>
       <c r="I231" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J231" s="17"/>
       <c r="K231" s="52"/>
       <c r="L231" s="54"/>
     </row>
     <row r="232" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A232" s="47"/>
+      <c r="A232" s="57"/>
       <c r="B232" s="5"/>
       <c r="C232" s="50"/>
       <c r="D232" s="5"/>
@@ -11647,9 +13426,11 @@
       <c r="G233" s="16"/>
       <c r="H233" s="16"/>
       <c r="I233" s="16"/>
+      <c r="K233" s="28"/>
+      <c r="L233" s="29"/>
     </row>
     <row r="234" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A234" s="48">
+      <c r="A234" s="56">
         <v>19</v>
       </c>
       <c r="B234" s="5"/>
@@ -11662,18 +13443,18 @@
       </c>
       <c r="F234"/>
       <c r="G234" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H234"/>
       <c r="I234" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J234" s="17"/>
       <c r="K234" s="52"/>
       <c r="L234" s="54"/>
     </row>
     <row r="235" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A235" s="47"/>
+      <c r="A235" s="57"/>
       <c r="B235" s="5"/>
       <c r="C235" s="50"/>
       <c r="D235" s="5"/>
@@ -11695,9 +13476,11 @@
       <c r="G236" s="16"/>
       <c r="H236" s="16"/>
       <c r="I236" s="16"/>
+      <c r="K236" s="28"/>
+      <c r="L236" s="29"/>
     </row>
     <row r="237" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A237" s="48">
+      <c r="A237" s="56">
         <v>20</v>
       </c>
       <c r="B237" s="5"/>
@@ -11706,22 +13489,22 @@
       </c>
       <c r="D237" s="5"/>
       <c r="E237" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F237"/>
       <c r="G237" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H237"/>
       <c r="I237" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J237" s="17"/>
       <c r="K237" s="52"/>
       <c r="L237" s="54"/>
     </row>
     <row r="238" spans="1:12" ht="12.95" customHeight="1">
-      <c r="A238" s="47"/>
+      <c r="A238" s="57"/>
       <c r="B238" s="5"/>
       <c r="C238" s="50"/>
       <c r="D238" s="5"/>
@@ -11747,8 +13530,7 @@
       <c r="H239" s="16"/>
       <c r="I239" s="16"/>
     </row>
-    <row r="240" spans="1:12" ht="15"/>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:12">
       <c r="A241" s="21" t="s">
         <v>93</v>
       </c>
@@ -11757,7 +13539,7 @@
       <c r="D241" s="14"/>
       <c r="E241" s="14"/>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:12">
       <c r="A242" s="22" t="s">
         <v>14</v>
       </c>
@@ -11768,7 +13550,7 @@
       <c r="D242" s="23"/>
       <c r="E242" s="23"/>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:12">
       <c r="A243" s="22"/>
       <c r="B243" s="23" t="s">
         <v>95</v>
@@ -11777,7 +13559,7 @@
       <c r="D243" s="23"/>
       <c r="E243" s="23"/>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:12">
       <c r="A244" s="22" t="s">
         <v>20</v>
       </c>
@@ -11788,7 +13570,7 @@
       <c r="D244" s="23"/>
       <c r="E244" s="23"/>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:12">
       <c r="A245" s="26"/>
       <c r="B245" s="23" t="s">
         <v>97</v>
@@ -11797,8 +13579,1333 @@
       <c r="D245" s="23"/>
       <c r="E245" s="23"/>
     </row>
+    <row r="247" spans="1:12" ht="13.5" thickBot="1"/>
+    <row r="248" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A248" s="30"/>
+      <c r="B248" s="31"/>
+      <c r="C248" s="31"/>
+      <c r="D248" s="31"/>
+      <c r="E248" s="31"/>
+      <c r="F248" s="31"/>
+      <c r="G248" s="31"/>
+      <c r="H248" s="31"/>
+      <c r="I248" s="31"/>
+      <c r="J248" s="31"/>
+      <c r="K248" s="31"/>
+      <c r="L248" s="32"/>
+    </row>
+    <row r="249" spans="1:12" ht="15" customHeight="1">
+      <c r="A249" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" s="34"/>
+      <c r="C249" s="34"/>
+      <c r="D249" s="34"/>
+      <c r="E249" s="34"/>
+      <c r="F249" s="34"/>
+      <c r="G249" s="34"/>
+      <c r="H249" s="34"/>
+      <c r="I249" s="34"/>
+      <c r="J249" s="34"/>
+      <c r="K249" s="34"/>
+      <c r="L249" s="35"/>
+    </row>
+    <row r="250" spans="1:12" ht="15" customHeight="1">
+      <c r="A250" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B250" s="34"/>
+      <c r="C250" s="34"/>
+      <c r="D250" s="34"/>
+      <c r="E250" s="34"/>
+      <c r="F250" s="34"/>
+      <c r="G250" s="34"/>
+      <c r="H250" s="34"/>
+      <c r="I250" s="34"/>
+      <c r="J250" s="34"/>
+      <c r="K250" s="34"/>
+      <c r="L250" s="35"/>
+    </row>
+    <row r="251" spans="1:12" ht="15" customHeight="1">
+      <c r="A251" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251" s="34"/>
+      <c r="C251" s="34"/>
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
+      <c r="F251" s="34"/>
+      <c r="G251" s="34"/>
+      <c r="H251" s="34"/>
+      <c r="I251" s="34"/>
+      <c r="J251" s="34"/>
+      <c r="K251" s="34"/>
+      <c r="L251" s="35"/>
+    </row>
+    <row r="252" spans="1:12" ht="15" customHeight="1">
+      <c r="A252" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B252" s="37"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="37"/>
+      <c r="E252" s="37"/>
+      <c r="F252" s="37"/>
+      <c r="G252" s="37"/>
+      <c r="H252" s="37"/>
+      <c r="I252" s="37"/>
+      <c r="J252" s="37"/>
+      <c r="K252" s="37"/>
+      <c r="L252" s="38"/>
+    </row>
+    <row r="253" spans="1:12" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A253" s="3"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
+      <c r="I253" s="4"/>
+      <c r="J253" s="4"/>
+      <c r="K253" s="4"/>
+      <c r="L253" s="19"/>
+    </row>
+    <row r="254" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
+      <c r="E254" s="5"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5"/>
+      <c r="K254" s="5"/>
+      <c r="L254" s="5"/>
+    </row>
+    <row r="255" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A255" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
+      <c r="E255" s="5"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
+    </row>
+    <row r="256" spans="1:12" ht="9" customHeight="1" thickBot="1">
+      <c r="A256" s="39"/>
+      <c r="B256" s="39"/>
+      <c r="C256" s="39"/>
+      <c r="D256" s="39"/>
+      <c r="E256" s="39"/>
+      <c r="F256" s="39"/>
+      <c r="G256" s="39"/>
+      <c r="H256" s="39"/>
+      <c r="I256" s="39"/>
+      <c r="J256" s="39"/>
+      <c r="K256" s="39"/>
+      <c r="L256" s="39"/>
+    </row>
+    <row r="257" spans="1:12" s="1" customFormat="1" ht="23.1" customHeight="1" thickTop="1">
+      <c r="A257" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B257" s="41"/>
+      <c r="C257" s="41"/>
+      <c r="D257" s="41"/>
+      <c r="E257" s="42"/>
+      <c r="F257" s="7"/>
+      <c r="G257" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="H257" s="44"/>
+      <c r="I257" s="45"/>
+      <c r="K257" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="L257" s="46"/>
+    </row>
+    <row r="258" spans="1:12" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="259" spans="1:12" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A259" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B259" s="7"/>
+      <c r="C259" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D259" s="7"/>
+      <c r="E259" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259" s="10"/>
+      <c r="G259" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H259" s="12"/>
+      <c r="I259" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J259" s="7"/>
+      <c r="K259" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="L259" s="48"/>
+    </row>
+    <row r="260" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A260" s="13"/>
+      <c r="B260" s="13"/>
+      <c r="C260" s="13"/>
+      <c r="D260" s="13"/>
+      <c r="E260" s="13"/>
+      <c r="G260" s="14"/>
+      <c r="H260" s="14"/>
+      <c r="I260" s="14"/>
+    </row>
+    <row r="261" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A261" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B261" s="5"/>
+      <c r="C261" s="49">
+        <f>C237+2</f>
+        <v>124</v>
+      </c>
+      <c r="D261" s="5"/>
+      <c r="E261" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F261"/>
+      <c r="G261" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H261"/>
+      <c r="I261" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="J261" s="17"/>
+      <c r="K261" s="52"/>
+      <c r="L261" s="54"/>
+    </row>
+    <row r="262" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A262" s="57"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="50"/>
+      <c r="D262" s="5"/>
+      <c r="E262" s="51"/>
+      <c r="F262"/>
+      <c r="G262" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H262"/>
+      <c r="I262" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J262" s="17"/>
+      <c r="K262" s="53"/>
+      <c r="L262" s="55"/>
+    </row>
+    <row r="263" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="G263" s="16"/>
+      <c r="H263" s="16"/>
+      <c r="I263" s="16"/>
+      <c r="K263" s="28"/>
+      <c r="L263" s="29"/>
+    </row>
+    <row r="264" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A264" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B264" s="5"/>
+      <c r="C264" s="49">
+        <f>C261+2</f>
+        <v>126</v>
+      </c>
+      <c r="D264" s="5"/>
+      <c r="E264" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F264"/>
+      <c r="G264" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H264"/>
+      <c r="I264" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="J264" s="17"/>
+      <c r="K264" s="52"/>
+      <c r="L264" s="54"/>
+    </row>
+    <row r="265" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A265" s="57"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="50"/>
+      <c r="D265" s="5"/>
+      <c r="E265" s="51"/>
+      <c r="F265"/>
+      <c r="G265" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H265"/>
+      <c r="I265" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J265" s="17"/>
+      <c r="K265" s="53"/>
+      <c r="L265" s="55"/>
+    </row>
+    <row r="266" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A266" s="13"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
+      <c r="D266" s="13"/>
+      <c r="G266" s="16"/>
+      <c r="H266" s="16"/>
+      <c r="I266" s="16"/>
+      <c r="K266" s="28"/>
+      <c r="L266" s="29"/>
+    </row>
+    <row r="267" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A267" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B267" s="5"/>
+      <c r="C267" s="49">
+        <f>C264+2</f>
+        <v>128</v>
+      </c>
+      <c r="D267" s="5"/>
+      <c r="E267" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="F267"/>
+      <c r="G267" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="H267"/>
+      <c r="I267" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="J267" s="17"/>
+      <c r="K267" s="52"/>
+      <c r="L267" s="54"/>
+    </row>
+    <row r="268" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A268" s="57"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="50"/>
+      <c r="D268" s="5"/>
+      <c r="E268" s="51"/>
+      <c r="F268"/>
+      <c r="G268" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H268"/>
+      <c r="I268" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J268" s="17"/>
+      <c r="K268" s="53"/>
+      <c r="L268" s="55"/>
+    </row>
+    <row r="269" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="E269" s="13"/>
+      <c r="G269" s="16"/>
+      <c r="H269" s="16"/>
+      <c r="I269" s="16"/>
+      <c r="K269" s="28"/>
+      <c r="L269" s="29"/>
+    </row>
+    <row r="270" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A270" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B270" s="5"/>
+      <c r="C270" s="49">
+        <f>C267+2</f>
+        <v>130</v>
+      </c>
+      <c r="D270" s="5"/>
+      <c r="E270" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="F270"/>
+      <c r="G270" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="H270"/>
+      <c r="I270" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="J270" s="17"/>
+      <c r="K270" s="52"/>
+      <c r="L270" s="54"/>
+    </row>
+    <row r="271" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A271" s="57"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="50"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="51"/>
+      <c r="F271"/>
+      <c r="G271" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H271"/>
+      <c r="I271" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="J271" s="17"/>
+      <c r="K271" s="53"/>
+      <c r="L271" s="55"/>
+    </row>
+    <row r="272" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="G272" s="16"/>
+      <c r="H272" s="16"/>
+      <c r="I272" s="16"/>
+      <c r="J272" s="17"/>
+      <c r="K272" s="28"/>
+      <c r="L272" s="29"/>
+    </row>
+    <row r="273" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A273" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B273" s="5"/>
+      <c r="C273" s="49">
+        <f>C270+2</f>
+        <v>132</v>
+      </c>
+      <c r="D273" s="5"/>
+      <c r="E273" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="F273"/>
+      <c r="G273" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H273"/>
+      <c r="I273" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="J273" s="17"/>
+      <c r="K273" s="52"/>
+      <c r="L273" s="54"/>
+    </row>
+    <row r="274" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A274" s="71"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="50"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="51"/>
+      <c r="F274"/>
+      <c r="G274" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H274"/>
+      <c r="I274" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J274" s="17"/>
+      <c r="K274" s="53"/>
+      <c r="L274" s="55"/>
+    </row>
+    <row r="275" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A275" s="13"/>
+      <c r="B275" s="13"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
+      <c r="G275" s="16"/>
+      <c r="H275" s="16"/>
+      <c r="I275" s="16"/>
+      <c r="K275" s="28"/>
+      <c r="L275" s="29"/>
+    </row>
+    <row r="276" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A276" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="B276" s="5"/>
+      <c r="C276" s="49">
+        <f>C273+2</f>
+        <v>134</v>
+      </c>
+      <c r="D276" s="5"/>
+      <c r="E276" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F276"/>
+      <c r="G276" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="H276"/>
+      <c r="I276" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="K276" s="52"/>
+      <c r="L276" s="54"/>
+    </row>
+    <row r="277" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A277" s="71"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="50"/>
+      <c r="D277" s="5"/>
+      <c r="E277" s="51"/>
+      <c r="F277"/>
+      <c r="G277" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H277"/>
+      <c r="I277" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K277" s="53"/>
+      <c r="L277" s="55"/>
+    </row>
+    <row r="278" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A278" s="13"/>
+      <c r="B278" s="13"/>
+      <c r="C278" s="13"/>
+      <c r="D278" s="13"/>
+      <c r="E278" s="13"/>
+      <c r="G278" s="18"/>
+      <c r="H278" s="18"/>
+      <c r="I278" s="18"/>
+      <c r="K278" s="28"/>
+      <c r="L278" s="29"/>
+    </row>
+    <row r="279" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A279" s="56">
+        <v>7</v>
+      </c>
+      <c r="B279" s="5"/>
+      <c r="C279" s="49">
+        <f>C276+2</f>
+        <v>136</v>
+      </c>
+      <c r="D279" s="5"/>
+      <c r="E279" s="67"/>
+      <c r="F279"/>
+      <c r="G279" s="15"/>
+      <c r="H279"/>
+      <c r="I279" s="15"/>
+      <c r="J279" s="17"/>
+      <c r="K279" s="52"/>
+      <c r="L279" s="54"/>
+    </row>
+    <row r="280" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A280" s="57"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="50"/>
+      <c r="D280" s="5"/>
+      <c r="E280" s="68"/>
+      <c r="F280"/>
+      <c r="G280" s="15"/>
+      <c r="H280"/>
+      <c r="I280" s="15"/>
+      <c r="J280" s="17"/>
+      <c r="K280" s="53"/>
+      <c r="L280" s="55"/>
+    </row>
+    <row r="281" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="G281" s="16"/>
+      <c r="H281" s="16"/>
+      <c r="I281" s="16"/>
+      <c r="K281" s="28"/>
+      <c r="L281" s="29"/>
+    </row>
+    <row r="282" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A282" s="56">
+        <v>8</v>
+      </c>
+      <c r="B282" s="5"/>
+      <c r="C282" s="49">
+        <f>C279+2</f>
+        <v>138</v>
+      </c>
+      <c r="D282" s="5"/>
+      <c r="E282" s="67"/>
+      <c r="F282"/>
+      <c r="G282" s="15"/>
+      <c r="H282"/>
+      <c r="I282" s="15"/>
+      <c r="J282" s="17"/>
+      <c r="K282" s="52"/>
+      <c r="L282" s="54"/>
+    </row>
+    <row r="283" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A283" s="57"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="50"/>
+      <c r="D283" s="5"/>
+      <c r="E283" s="68"/>
+      <c r="F283"/>
+      <c r="G283" s="15"/>
+      <c r="H283"/>
+      <c r="I283" s="15"/>
+      <c r="J283" s="17"/>
+      <c r="K283" s="53"/>
+      <c r="L283" s="55"/>
+    </row>
+    <row r="284" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A284" s="13"/>
+      <c r="B284" s="13"/>
+      <c r="D284" s="13"/>
+      <c r="E284" s="13"/>
+      <c r="G284" s="16"/>
+      <c r="H284" s="16"/>
+      <c r="I284" s="16"/>
+      <c r="K284" s="28"/>
+      <c r="L284" s="29"/>
+    </row>
+    <row r="285" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A285" s="56">
+        <v>9</v>
+      </c>
+      <c r="B285" s="5"/>
+      <c r="C285" s="49">
+        <f>C282+2</f>
+        <v>140</v>
+      </c>
+      <c r="D285" s="5"/>
+      <c r="E285" s="67"/>
+      <c r="F285"/>
+      <c r="G285" s="15"/>
+      <c r="H285"/>
+      <c r="I285" s="15"/>
+      <c r="J285" s="17"/>
+      <c r="K285" s="52"/>
+      <c r="L285" s="54"/>
+    </row>
+    <row r="286" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A286" s="57"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="50"/>
+      <c r="D286" s="5"/>
+      <c r="E286" s="68"/>
+      <c r="F286"/>
+      <c r="G286" s="15"/>
+      <c r="H286"/>
+      <c r="I286" s="15"/>
+      <c r="J286" s="17"/>
+      <c r="K286" s="53"/>
+      <c r="L286" s="55"/>
+    </row>
+    <row r="287" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="C287" s="13"/>
+      <c r="G287" s="16"/>
+      <c r="H287" s="16"/>
+      <c r="I287" s="16"/>
+      <c r="K287" s="28"/>
+      <c r="L287" s="29"/>
+    </row>
+    <row r="288" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A288" s="56">
+        <v>10</v>
+      </c>
+      <c r="B288" s="5"/>
+      <c r="C288" s="49">
+        <f>C285+2</f>
+        <v>142</v>
+      </c>
+      <c r="D288" s="5"/>
+      <c r="E288" s="67"/>
+      <c r="F288"/>
+      <c r="G288" s="15"/>
+      <c r="H288"/>
+      <c r="I288" s="15"/>
+      <c r="J288" s="17"/>
+      <c r="K288" s="52"/>
+      <c r="L288" s="54"/>
+    </row>
+    <row r="289" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A289" s="57"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="50"/>
+      <c r="D289" s="5"/>
+      <c r="E289" s="68"/>
+      <c r="F289"/>
+      <c r="G289" s="15"/>
+      <c r="H289"/>
+      <c r="I289" s="15"/>
+      <c r="J289" s="17"/>
+      <c r="K289" s="53"/>
+      <c r="L289" s="55"/>
+    </row>
+    <row r="290" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
+      <c r="D290" s="5"/>
+      <c r="E290" s="5"/>
+      <c r="F290" s="17"/>
+      <c r="G290" s="16"/>
+      <c r="H290" s="16"/>
+      <c r="I290" s="16"/>
+      <c r="J290" s="17"/>
+      <c r="K290" s="28"/>
+      <c r="L290" s="29"/>
+    </row>
+    <row r="291" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A291" s="56">
+        <v>11</v>
+      </c>
+      <c r="B291" s="5"/>
+      <c r="C291" s="49">
+        <f>C288+2</f>
+        <v>144</v>
+      </c>
+      <c r="D291" s="5"/>
+      <c r="E291" s="67"/>
+      <c r="F291"/>
+      <c r="G291" s="15"/>
+      <c r="H291"/>
+      <c r="I291" s="15"/>
+      <c r="J291" s="17"/>
+      <c r="K291" s="52"/>
+      <c r="L291" s="54"/>
+    </row>
+    <row r="292" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A292" s="57"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="50"/>
+      <c r="D292" s="5"/>
+      <c r="E292" s="68"/>
+      <c r="F292"/>
+      <c r="G292" s="15"/>
+      <c r="H292"/>
+      <c r="I292" s="15"/>
+      <c r="J292" s="17"/>
+      <c r="K292" s="53"/>
+      <c r="L292" s="55"/>
+    </row>
+    <row r="293" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="G293" s="16"/>
+      <c r="H293" s="16"/>
+      <c r="I293" s="16"/>
+      <c r="K293" s="28"/>
+      <c r="L293" s="29"/>
+    </row>
+    <row r="294" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A294" s="56">
+        <v>12</v>
+      </c>
+      <c r="B294" s="5"/>
+      <c r="C294" s="49">
+        <f>C291+2</f>
+        <v>146</v>
+      </c>
+      <c r="D294" s="5"/>
+      <c r="E294" s="67"/>
+      <c r="F294"/>
+      <c r="G294" s="15"/>
+      <c r="H294"/>
+      <c r="I294" s="15"/>
+      <c r="J294" s="17"/>
+      <c r="K294" s="52"/>
+      <c r="L294" s="54"/>
+    </row>
+    <row r="295" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A295" s="57"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="50"/>
+      <c r="D295" s="5"/>
+      <c r="E295" s="68"/>
+      <c r="F295"/>
+      <c r="G295" s="15"/>
+      <c r="H295"/>
+      <c r="I295" s="15"/>
+      <c r="J295" s="17"/>
+      <c r="K295" s="53"/>
+      <c r="L295" s="55"/>
+    </row>
+    <row r="296" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A296" s="13"/>
+      <c r="B296" s="13"/>
+      <c r="C296" s="13"/>
+      <c r="D296" s="13"/>
+      <c r="E296" s="13"/>
+      <c r="G296" s="16"/>
+      <c r="H296" s="16"/>
+      <c r="I296" s="16"/>
+      <c r="K296" s="28"/>
+      <c r="L296" s="29"/>
+    </row>
+    <row r="297" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A297" s="56">
+        <v>13</v>
+      </c>
+      <c r="B297" s="5"/>
+      <c r="C297" s="49">
+        <f>C294+2</f>
+        <v>148</v>
+      </c>
+      <c r="D297" s="5"/>
+      <c r="E297" s="67"/>
+      <c r="F297"/>
+      <c r="G297" s="15"/>
+      <c r="H297"/>
+      <c r="I297" s="15"/>
+      <c r="J297" s="17"/>
+      <c r="K297" s="52"/>
+      <c r="L297" s="54"/>
+    </row>
+    <row r="298" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A298" s="57"/>
+      <c r="B298" s="5"/>
+      <c r="C298" s="50"/>
+      <c r="D298" s="5"/>
+      <c r="E298" s="68"/>
+      <c r="F298"/>
+      <c r="G298" s="15"/>
+      <c r="H298"/>
+      <c r="I298" s="15"/>
+      <c r="J298" s="17"/>
+      <c r="K298" s="53"/>
+      <c r="L298" s="55"/>
+    </row>
+    <row r="299" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="G299" s="16"/>
+      <c r="H299" s="16"/>
+      <c r="I299" s="16"/>
+      <c r="K299" s="28"/>
+      <c r="L299" s="29"/>
+    </row>
+    <row r="300" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A300" s="56">
+        <v>14</v>
+      </c>
+      <c r="B300" s="5"/>
+      <c r="C300" s="49">
+        <f>C297+2</f>
+        <v>150</v>
+      </c>
+      <c r="D300" s="5"/>
+      <c r="E300" s="67"/>
+      <c r="F300"/>
+      <c r="G300" s="27"/>
+      <c r="H300"/>
+      <c r="I300" s="63"/>
+      <c r="J300" s="17"/>
+      <c r="K300" s="52"/>
+      <c r="L300" s="54"/>
+    </row>
+    <row r="301" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A301" s="57"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="50"/>
+      <c r="D301" s="5"/>
+      <c r="E301" s="68"/>
+      <c r="F301"/>
+      <c r="G301" s="15"/>
+      <c r="H301"/>
+      <c r="I301" s="64"/>
+      <c r="J301" s="17"/>
+      <c r="K301" s="53"/>
+      <c r="L301" s="55"/>
+    </row>
+    <row r="302" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A302" s="5"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="17"/>
+      <c r="G302" s="16"/>
+      <c r="H302" s="16"/>
+      <c r="I302" s="16"/>
+      <c r="J302" s="17"/>
+      <c r="K302" s="28"/>
+      <c r="L302" s="29"/>
+    </row>
+    <row r="303" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A303" s="56">
+        <v>15</v>
+      </c>
+      <c r="B303" s="5"/>
+      <c r="C303" s="49">
+        <f>C300+2</f>
+        <v>152</v>
+      </c>
+      <c r="D303" s="5"/>
+      <c r="E303" s="67"/>
+      <c r="F303"/>
+      <c r="G303" s="15"/>
+      <c r="H303"/>
+      <c r="I303" s="63"/>
+      <c r="J303" s="17"/>
+      <c r="K303" s="52"/>
+      <c r="L303" s="54"/>
+    </row>
+    <row r="304" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A304" s="57"/>
+      <c r="B304" s="5"/>
+      <c r="C304" s="50"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="68"/>
+      <c r="F304"/>
+      <c r="G304" s="15"/>
+      <c r="H304"/>
+      <c r="I304" s="64"/>
+      <c r="J304" s="17"/>
+      <c r="K304" s="53"/>
+      <c r="L304" s="55"/>
+    </row>
+    <row r="305" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A305" s="13"/>
+      <c r="B305" s="13"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="13"/>
+      <c r="E305" s="13"/>
+      <c r="G305" s="16"/>
+      <c r="H305" s="16"/>
+      <c r="I305" s="16"/>
+      <c r="K305" s="28"/>
+      <c r="L305" s="29"/>
+    </row>
+    <row r="306" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A306" s="56">
+        <v>16</v>
+      </c>
+      <c r="B306" s="5"/>
+      <c r="C306" s="49">
+        <f>C303+2</f>
+        <v>154</v>
+      </c>
+      <c r="D306" s="5"/>
+      <c r="E306" s="67"/>
+      <c r="F306"/>
+      <c r="G306" s="63"/>
+      <c r="H306"/>
+      <c r="I306" s="15"/>
+      <c r="K306" s="52"/>
+      <c r="L306" s="54"/>
+    </row>
+    <row r="307" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A307" s="57"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="50"/>
+      <c r="D307" s="5"/>
+      <c r="E307" s="68"/>
+      <c r="F307"/>
+      <c r="G307" s="64"/>
+      <c r="H307"/>
+      <c r="I307" s="15"/>
+      <c r="K307" s="53"/>
+      <c r="L307" s="55"/>
+    </row>
+    <row r="308" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A308" s="13"/>
+      <c r="B308" s="13"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="13"/>
+      <c r="E308" s="13"/>
+      <c r="G308" s="18"/>
+      <c r="H308" s="18"/>
+      <c r="I308" s="18"/>
+      <c r="K308" s="28"/>
+      <c r="L308" s="29"/>
+    </row>
+    <row r="309" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A309" s="56">
+        <v>17</v>
+      </c>
+      <c r="B309" s="5"/>
+      <c r="C309" s="49">
+        <f>C306+2</f>
+        <v>156</v>
+      </c>
+      <c r="D309" s="5"/>
+      <c r="E309" s="67"/>
+      <c r="F309"/>
+      <c r="G309" s="15"/>
+      <c r="H309"/>
+      <c r="I309" s="63"/>
+      <c r="J309" s="17"/>
+      <c r="K309" s="52"/>
+      <c r="L309" s="54"/>
+    </row>
+    <row r="310" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A310" s="57"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="50"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="68"/>
+      <c r="F310"/>
+      <c r="G310" s="15"/>
+      <c r="H310"/>
+      <c r="I310" s="64"/>
+      <c r="J310" s="17"/>
+      <c r="K310" s="53"/>
+      <c r="L310" s="55"/>
+    </row>
+    <row r="311" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="G311" s="16"/>
+      <c r="H311" s="16"/>
+      <c r="I311" s="16"/>
+      <c r="K311" s="28"/>
+      <c r="L311" s="29"/>
+    </row>
+    <row r="312" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A312" s="56">
+        <v>18</v>
+      </c>
+      <c r="B312" s="5"/>
+      <c r="C312" s="49">
+        <f>C309+2</f>
+        <v>158</v>
+      </c>
+      <c r="D312" s="5"/>
+      <c r="E312" s="67"/>
+      <c r="F312"/>
+      <c r="G312" s="15"/>
+      <c r="H312"/>
+      <c r="I312" s="63"/>
+      <c r="J312" s="17"/>
+      <c r="K312" s="52"/>
+      <c r="L312" s="54"/>
+    </row>
+    <row r="313" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A313" s="57"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="50"/>
+      <c r="D313" s="5"/>
+      <c r="E313" s="68"/>
+      <c r="F313"/>
+      <c r="G313" s="15"/>
+      <c r="H313"/>
+      <c r="I313" s="64"/>
+      <c r="J313" s="17"/>
+      <c r="K313" s="53"/>
+      <c r="L313" s="55"/>
+    </row>
+    <row r="314" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A314" s="13"/>
+      <c r="B314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
+      <c r="G314" s="16"/>
+      <c r="H314" s="16"/>
+      <c r="I314" s="16"/>
+      <c r="K314" s="28"/>
+      <c r="L314" s="29"/>
+    </row>
+    <row r="315" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A315" s="56">
+        <v>19</v>
+      </c>
+      <c r="B315" s="5"/>
+      <c r="C315" s="49">
+        <f>C312+2</f>
+        <v>160</v>
+      </c>
+      <c r="D315" s="5"/>
+      <c r="E315" s="67"/>
+      <c r="F315"/>
+      <c r="G315" s="15"/>
+      <c r="H315"/>
+      <c r="I315" s="15"/>
+      <c r="J315" s="17"/>
+      <c r="K315" s="52"/>
+      <c r="L315" s="54"/>
+    </row>
+    <row r="316" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A316" s="57"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="50"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="68"/>
+      <c r="F316"/>
+      <c r="G316" s="15"/>
+      <c r="H316"/>
+      <c r="I316" s="15"/>
+      <c r="J316" s="17"/>
+      <c r="K316" s="53"/>
+      <c r="L316" s="55"/>
+    </row>
+    <row r="317" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="C317" s="13"/>
+      <c r="G317" s="16"/>
+      <c r="H317" s="16"/>
+      <c r="I317" s="16"/>
+      <c r="K317" s="28"/>
+      <c r="L317" s="29"/>
+    </row>
+    <row r="318" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A318" s="56">
+        <v>20</v>
+      </c>
+      <c r="B318" s="5"/>
+      <c r="C318" s="49">
+        <f>C315+2</f>
+        <v>162</v>
+      </c>
+      <c r="D318" s="5"/>
+      <c r="E318" s="67"/>
+      <c r="F318"/>
+      <c r="G318" s="15"/>
+      <c r="H318"/>
+      <c r="I318" s="15"/>
+      <c r="J318" s="17"/>
+      <c r="K318" s="52"/>
+      <c r="L318" s="54"/>
+    </row>
+    <row r="319" spans="1:12" ht="12.95" customHeight="1">
+      <c r="A319" s="57"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="50"/>
+      <c r="D319" s="5"/>
+      <c r="E319" s="68"/>
+      <c r="F319"/>
+      <c r="G319" s="15"/>
+      <c r="H319"/>
+      <c r="I319" s="15"/>
+      <c r="J319" s="17"/>
+      <c r="K319" s="53"/>
+      <c r="L319" s="55"/>
+    </row>
+    <row r="320" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A320" s="13"/>
+      <c r="B320" s="13"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="13"/>
+      <c r="E320" s="13"/>
+      <c r="G320" s="18"/>
+      <c r="H320" s="18"/>
+      <c r="I320" s="18"/>
+      <c r="K320" s="28"/>
+      <c r="L320" s="29"/>
+    </row>
+    <row r="322" spans="1:12" ht="15" customHeight="1">
+      <c r="A322" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
+      <c r="D322" s="14"/>
+      <c r="E322" s="14"/>
+      <c r="F322" s="14"/>
+      <c r="G322" s="14"/>
+      <c r="H322" s="14"/>
+      <c r="I322" s="14"/>
+      <c r="J322" s="14"/>
+      <c r="K322" s="14"/>
+      <c r="L322" s="14"/>
+    </row>
+    <row r="323" spans="1:12" ht="5.0999999999999996" customHeight="1">
+      <c r="A323" s="14"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="14"/>
+      <c r="D323" s="14"/>
+      <c r="E323" s="14"/>
+      <c r="F323" s="14"/>
+      <c r="G323" s="14"/>
+      <c r="H323" s="14"/>
+      <c r="I323" s="14"/>
+      <c r="J323" s="14"/>
+      <c r="K323" s="14"/>
+      <c r="L323" s="14"/>
+    </row>
+    <row r="324" spans="1:12" ht="11.1" customHeight="1">
+      <c r="A324" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B324" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C324" s="24"/>
+      <c r="D324" s="23"/>
+      <c r="E324" s="23"/>
+      <c r="F324" s="23"/>
+      <c r="G324" s="23"/>
+      <c r="H324" s="23"/>
+      <c r="I324" s="23"/>
+      <c r="J324" s="23"/>
+      <c r="K324" s="23"/>
+      <c r="L324" s="23"/>
+    </row>
+    <row r="325" spans="1:12" ht="11.1" customHeight="1">
+      <c r="A325" s="22"/>
+      <c r="B325" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C325" s="24"/>
+      <c r="D325" s="23"/>
+      <c r="E325" s="23"/>
+      <c r="F325" s="23"/>
+      <c r="G325" s="23"/>
+      <c r="H325" s="23"/>
+      <c r="I325" s="23"/>
+      <c r="J325" s="23"/>
+      <c r="K325" s="23"/>
+      <c r="L325" s="23"/>
+    </row>
+    <row r="326" spans="1:12" ht="11.1" customHeight="1">
+      <c r="A326" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B326" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C326" s="25"/>
+      <c r="D326" s="23"/>
+      <c r="E326" s="23"/>
+      <c r="F326" s="23"/>
+      <c r="G326" s="23"/>
+      <c r="H326" s="23"/>
+      <c r="I326" s="23"/>
+      <c r="J326" s="23"/>
+      <c r="K326" s="23"/>
+      <c r="L326" s="23"/>
+    </row>
+    <row r="327" spans="1:12" ht="11.1" customHeight="1">
+      <c r="A327" s="26"/>
+      <c r="B327" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C327" s="24"/>
+      <c r="D327" s="23"/>
+      <c r="E327" s="23"/>
+      <c r="F327" s="23"/>
+      <c r="G327" s="23"/>
+      <c r="H327" s="23"/>
+      <c r="I327" s="23"/>
+      <c r="J327" s="23"/>
+      <c r="K327" s="23"/>
+      <c r="L327" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="341">
+  <mergeCells count="456">
+    <mergeCell ref="A315:A316"/>
+    <mergeCell ref="C315:C316"/>
+    <mergeCell ref="E315:E316"/>
+    <mergeCell ref="K315:K316"/>
+    <mergeCell ref="L315:L316"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="E318:E319"/>
+    <mergeCell ref="K318:K319"/>
+    <mergeCell ref="L318:L319"/>
+    <mergeCell ref="A309:A310"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="E309:E310"/>
+    <mergeCell ref="I309:I310"/>
+    <mergeCell ref="K309:K310"/>
+    <mergeCell ref="L309:L310"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="E312:E313"/>
+    <mergeCell ref="I312:I313"/>
+    <mergeCell ref="K312:K313"/>
+    <mergeCell ref="L312:L313"/>
+    <mergeCell ref="A303:A304"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="E303:E304"/>
+    <mergeCell ref="I303:I304"/>
+    <mergeCell ref="K303:K304"/>
+    <mergeCell ref="L303:L304"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="E306:E307"/>
+    <mergeCell ref="G306:G307"/>
+    <mergeCell ref="K306:K307"/>
+    <mergeCell ref="L306:L307"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="E297:E298"/>
+    <mergeCell ref="K297:K298"/>
+    <mergeCell ref="L297:L298"/>
+    <mergeCell ref="A300:A301"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="E300:E301"/>
+    <mergeCell ref="I300:I301"/>
+    <mergeCell ref="K300:K301"/>
+    <mergeCell ref="L300:L301"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="E291:E292"/>
+    <mergeCell ref="K291:K292"/>
+    <mergeCell ref="L291:L292"/>
+    <mergeCell ref="A294:A295"/>
+    <mergeCell ref="C294:C295"/>
+    <mergeCell ref="E294:E295"/>
+    <mergeCell ref="K294:K295"/>
+    <mergeCell ref="L294:L295"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="K285:K286"/>
+    <mergeCell ref="L285:L286"/>
+    <mergeCell ref="A288:A289"/>
+    <mergeCell ref="C288:C289"/>
+    <mergeCell ref="E288:E289"/>
+    <mergeCell ref="K288:K289"/>
+    <mergeCell ref="L288:L289"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="K279:K280"/>
+    <mergeCell ref="L279:L280"/>
+    <mergeCell ref="A282:A283"/>
+    <mergeCell ref="C282:C283"/>
+    <mergeCell ref="E282:E283"/>
+    <mergeCell ref="K282:K283"/>
+    <mergeCell ref="L282:L283"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="K273:K274"/>
+    <mergeCell ref="L273:L274"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="E276:E277"/>
+    <mergeCell ref="K276:K277"/>
+    <mergeCell ref="L276:L277"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="E267:E268"/>
+    <mergeCell ref="K267:K268"/>
+    <mergeCell ref="L267:L268"/>
+    <mergeCell ref="A270:A271"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="E270:E271"/>
+    <mergeCell ref="K270:K271"/>
+    <mergeCell ref="L270:L271"/>
+    <mergeCell ref="K259:L259"/>
+    <mergeCell ref="A261:A262"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="E261:E262"/>
+    <mergeCell ref="K261:K262"/>
+    <mergeCell ref="L261:L262"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="K264:K265"/>
+    <mergeCell ref="L264:L265"/>
+    <mergeCell ref="A248:L248"/>
+    <mergeCell ref="A249:L249"/>
+    <mergeCell ref="A250:L250"/>
+    <mergeCell ref="A251:L251"/>
+    <mergeCell ref="A252:L252"/>
+    <mergeCell ref="A256:L256"/>
+    <mergeCell ref="A257:E257"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="K257:L257"/>
     <mergeCell ref="L225:L226"/>
     <mergeCell ref="L228:L229"/>
     <mergeCell ref="L231:L232"/>
@@ -11819,15 +14926,10 @@
     <mergeCell ref="L216:L217"/>
     <mergeCell ref="L219:L220"/>
     <mergeCell ref="L222:L223"/>
-    <mergeCell ref="L149:L150"/>
-    <mergeCell ref="L152:L153"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="L180:L181"/>
-    <mergeCell ref="L183:L184"/>
-    <mergeCell ref="L186:L187"/>
-    <mergeCell ref="L189:L190"/>
-    <mergeCell ref="L192:L193"/>
-    <mergeCell ref="L195:L196"/>
+    <mergeCell ref="K225:K226"/>
+    <mergeCell ref="K228:K229"/>
+    <mergeCell ref="K231:K232"/>
+    <mergeCell ref="K234:K235"/>
     <mergeCell ref="L122:L123"/>
     <mergeCell ref="L125:L126"/>
     <mergeCell ref="L128:L129"/>
@@ -11846,10 +14948,6 @@
     <mergeCell ref="L113:L114"/>
     <mergeCell ref="L116:L117"/>
     <mergeCell ref="L119:L120"/>
-    <mergeCell ref="K225:K226"/>
-    <mergeCell ref="K228:K229"/>
-    <mergeCell ref="K231:K232"/>
-    <mergeCell ref="K234:K235"/>
     <mergeCell ref="K237:K238"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="L17:L18"/>
@@ -11888,6 +14986,16 @@
     <mergeCell ref="K189:K190"/>
     <mergeCell ref="K192:K193"/>
     <mergeCell ref="K195:K196"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="L149:L150"/>
+    <mergeCell ref="L152:L153"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="L180:L181"/>
+    <mergeCell ref="L183:L184"/>
+    <mergeCell ref="L186:L187"/>
+    <mergeCell ref="L189:L190"/>
+    <mergeCell ref="L192:L193"/>
+    <mergeCell ref="L195:L196"/>
     <mergeCell ref="K122:K123"/>
     <mergeCell ref="K125:K126"/>
     <mergeCell ref="K128:K129"/>
@@ -12059,16 +15167,20 @@
     <mergeCell ref="A213:A214"/>
     <mergeCell ref="A216:A217"/>
     <mergeCell ref="A219:A220"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A152:A153"/>
     <mergeCell ref="A155:A156"/>
     <mergeCell ref="A180:A181"/>
     <mergeCell ref="A183:A184"/>
     <mergeCell ref="A186:A187"/>
     <mergeCell ref="A189:A190"/>
     <mergeCell ref="A192:A193"/>
-    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="A170:L170"/>
+    <mergeCell ref="A171:L171"/>
+    <mergeCell ref="A175:L175"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
@@ -12078,17 +15190,6 @@
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="A101:A102"/>
@@ -12096,12 +15197,6 @@
     <mergeCell ref="A167:L167"/>
     <mergeCell ref="A168:L168"/>
     <mergeCell ref="A169:L169"/>
-    <mergeCell ref="A170:L170"/>
-    <mergeCell ref="A171:L171"/>
-    <mergeCell ref="A175:L175"/>
-    <mergeCell ref="A176:E176"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="K176:L176"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="A110:A111"/>
@@ -12116,6 +15211,9 @@
     <mergeCell ref="A137:A138"/>
     <mergeCell ref="A140:A141"/>
     <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A152:A153"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="A82:L82"/>
     <mergeCell ref="A83:L83"/>
@@ -12131,6 +15229,15 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="K71:K72"/>
     <mergeCell ref="L71:L72"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A59:A60"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
